--- a/teaching/traditional_assets/database/data/mauritius/mauritius_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_metals_mining.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="tsxv_afm" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-1.138627187079408</v>
+        <v>0.03906439854191981</v>
       </c>
       <c r="H2">
-        <v>-1.138627187079408</v>
+        <v>0.03906439854191981</v>
       </c>
       <c r="I2">
-        <v>-1.14535666218035</v>
+        <v>0.1257594167679222</v>
       </c>
       <c r="J2">
-        <v>-1.14535666218035</v>
+        <v>0.1257594167679222</v>
       </c>
       <c r="K2">
-        <v>-5.12</v>
+        <v>5.86</v>
       </c>
       <c r="L2">
-        <v>-0.6890982503364738</v>
+        <v>0.03560145808019442</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.765</v>
+        <v>9.77</v>
       </c>
       <c r="V2">
-        <v>0.006781914893617022</v>
+        <v>0.0270412399667866</v>
       </c>
       <c r="W2">
-        <v>-0.03855421686746988</v>
+        <v>0.04311994113318617</v>
       </c>
       <c r="X2">
-        <v>0.1452648103904745</v>
+        <v>0.06949957658770856</v>
       </c>
       <c r="Y2">
-        <v>-0.1838190272579444</v>
+        <v>-0.02637963545452239</v>
       </c>
       <c r="Z2">
-        <v>0.04721357310796213</v>
+        <v>0.7215026190632738</v>
       </c>
       <c r="AA2">
-        <v>-0.05407638050454343</v>
+        <v>0.09073574856992569</v>
       </c>
       <c r="AB2">
-        <v>0.09934478442870681</v>
+        <v>0.06389951499269139</v>
       </c>
       <c r="AC2">
-        <v>-0.1534211649332503</v>
+        <v>0.0268362335772343</v>
       </c>
       <c r="AD2">
-        <v>93</v>
+        <v>67.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>93</v>
+        <v>67.5</v>
       </c>
       <c r="AG2">
-        <v>92.235</v>
+        <v>57.73</v>
       </c>
       <c r="AH2">
-        <v>0.4518950437317784</v>
+        <v>0.1574160447761194</v>
       </c>
       <c r="AI2">
-        <v>0.362290611608882</v>
+        <v>0.2493535278906539</v>
       </c>
       <c r="AJ2">
-        <v>0.4498500256053845</v>
+        <v>0.137770565353316</v>
       </c>
       <c r="AK2">
-        <v>0.3603844726200012</v>
+        <v>0.2212470777603189</v>
       </c>
       <c r="AL2">
-        <v>1.51</v>
+        <v>16.5</v>
       </c>
       <c r="AM2">
-        <v>1.505</v>
+        <v>16.5</v>
       </c>
       <c r="AN2">
-        <v>-13.04347826086957</v>
+        <v>1.298076923076923</v>
       </c>
       <c r="AO2">
-        <v>-5.635761589403973</v>
+        <v>1.254545454545454</v>
       </c>
       <c r="AP2">
-        <v>-12.93618513323983</v>
+        <v>1.110192307692308</v>
       </c>
       <c r="AQ2">
-        <v>-5.654485049833887</v>
+        <v>1.254545454545454</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-1.138627187079408</v>
+        <v>0.03906439854191981</v>
       </c>
       <c r="H3">
-        <v>-1.138627187079408</v>
+        <v>0.03906439854191981</v>
       </c>
       <c r="I3">
-        <v>-1.14535666218035</v>
+        <v>0.1257594167679222</v>
       </c>
       <c r="J3">
-        <v>-1.14535666218035</v>
+        <v>0.1257594167679222</v>
       </c>
       <c r="K3">
-        <v>-5.12</v>
+        <v>5.86</v>
       </c>
       <c r="L3">
-        <v>-0.6890982503364738</v>
+        <v>0.03560145808019442</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.765</v>
+        <v>9.77</v>
       </c>
       <c r="V3">
-        <v>0.006781914893617022</v>
+        <v>0.0270412399667866</v>
       </c>
       <c r="W3">
-        <v>-0.03855421686746988</v>
+        <v>0.04311994113318617</v>
       </c>
       <c r="X3">
-        <v>0.1452648103904745</v>
+        <v>0.06949957658770856</v>
       </c>
       <c r="Y3">
-        <v>-0.1838190272579444</v>
+        <v>-0.02637963545452239</v>
       </c>
       <c r="Z3">
-        <v>0.04721357310796213</v>
+        <v>0.7215026190632738</v>
       </c>
       <c r="AA3">
-        <v>-0.05407638050454343</v>
+        <v>0.09073574856992569</v>
       </c>
       <c r="AB3">
-        <v>0.09934478442870681</v>
+        <v>0.06389951499269139</v>
       </c>
       <c r="AC3">
-        <v>-0.1534211649332503</v>
+        <v>0.0268362335772343</v>
       </c>
       <c r="AD3">
-        <v>93</v>
+        <v>67.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>93</v>
+        <v>67.5</v>
       </c>
       <c r="AG3">
-        <v>92.235</v>
+        <v>57.73</v>
       </c>
       <c r="AH3">
-        <v>0.4518950437317784</v>
+        <v>0.1574160447761194</v>
       </c>
       <c r="AI3">
-        <v>0.362290611608882</v>
+        <v>0.2493535278906539</v>
       </c>
       <c r="AJ3">
-        <v>0.4498500256053845</v>
+        <v>0.137770565353316</v>
       </c>
       <c r="AK3">
-        <v>0.3603844726200012</v>
+        <v>0.2212470777603189</v>
       </c>
       <c r="AL3">
-        <v>1.51</v>
+        <v>16.5</v>
       </c>
       <c r="AM3">
-        <v>1.505</v>
+        <v>16.5</v>
       </c>
       <c r="AN3">
-        <v>-13.04347826086957</v>
+        <v>1.298076923076923</v>
       </c>
       <c r="AO3">
-        <v>-5.635761589403973</v>
+        <v>1.254545454545454</v>
       </c>
       <c r="AP3">
-        <v>-12.93618513323983</v>
+        <v>1.110192307692308</v>
       </c>
       <c r="AQ3">
-        <v>-5.654485049833887</v>
+        <v>1.254545454545454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alphamin Resources Corp. (TSXV:AFM)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TSXV:AFM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.157416044776119</v>
+      </c>
+      <c r="F2">
+        <v>0.53</v>
+      </c>
+      <c r="G2">
+        <v>361.3</v>
+      </c>
+      <c r="H2">
+        <v>223.927636361344</v>
+      </c>
+      <c r="I2">
+        <v>419.03</v>
+      </c>
+      <c r="J2">
+        <v>441.421636361344</v>
+      </c>
+      <c r="K2">
+        <v>67.5</v>
+      </c>
+      <c r="L2">
+        <v>227.264</v>
+      </c>
+      <c r="M2">
+        <v>0.06389951499269141</v>
+      </c>
+      <c r="N2">
+        <v>0.0594889447792645</v>
+      </c>
+      <c r="O2">
+        <v>0.0339246667811402</v>
+      </c>
+      <c r="P2">
+        <v>0.01377</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0694995765877086</v>
+      </c>
+      <c r="T2">
+        <v>0.11104435059418</v>
+      </c>
+      <c r="U2">
+        <v>0.960657367364511</v>
+      </c>
+      <c r="V2">
+        <v>1.623623711765</v>
+      </c>
+      <c r="W2">
+        <v>13.99063600585472</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>361.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.03991137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>52</v>
+      </c>
+      <c r="AH2">
+        <v>0.491</v>
+      </c>
+      <c r="AI2">
+        <v>6.98</v>
+      </c>
+      <c r="AJ2">
+        <v>67.5</v>
+      </c>
+      <c r="AK2">
+        <v>67.5</v>
+      </c>
+      <c r="AL2">
+        <v>16.5</v>
+      </c>
+      <c r="AM2">
+        <v>67.5</v>
+      </c>
+      <c r="AN2">
+        <v>9.77</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06124985853260669</v>
+      </c>
+      <c r="C2">
+        <v>441.9708142904059</v>
+      </c>
+      <c r="D2">
+        <v>432.2008142904059</v>
+      </c>
+      <c r="E2">
+        <v>-67.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>9.77</v>
+      </c>
+      <c r="H2">
+        <v>361.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>0.491</v>
+      </c>
+      <c r="L2">
+        <v>51.509</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>51.509</v>
+      </c>
+      <c r="O2">
+        <v>7.72635</v>
+      </c>
+      <c r="P2">
+        <v>43.78265</v>
+      </c>
+      <c r="Q2">
+        <v>44.27365</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06124985853260669</v>
+      </c>
+      <c r="T2">
+        <v>0.8290093911238978</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06121663374480776</v>
+      </c>
+      <c r="C3">
+        <v>437.8532250212668</v>
+      </c>
+      <c r="D3">
+        <v>432.3712250212668</v>
+      </c>
+      <c r="E3">
+        <v>-63.212</v>
+      </c>
+      <c r="F3">
+        <v>4.288</v>
+      </c>
+      <c r="G3">
+        <v>9.77</v>
+      </c>
+      <c r="H3">
+        <v>361.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>0.491</v>
+      </c>
+      <c r="L3">
+        <v>51.509</v>
+      </c>
+      <c r="M3">
+        <v>0.0694656</v>
+      </c>
+      <c r="N3">
+        <v>51.4395344</v>
+      </c>
+      <c r="O3">
+        <v>7.715930159999999</v>
+      </c>
+      <c r="P3">
+        <v>43.72360424</v>
+      </c>
+      <c r="Q3">
+        <v>44.21460424</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06169589267152299</v>
+      </c>
+      <c r="T3">
+        <v>0.8361271485224362</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>741.5037083103003</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06118340895700887</v>
+      </c>
+      <c r="C4">
+        <v>433.7357701862642</v>
+      </c>
+      <c r="D4">
+        <v>432.5417701862643</v>
+      </c>
+      <c r="E4">
+        <v>-58.924</v>
+      </c>
+      <c r="F4">
+        <v>8.576000000000001</v>
+      </c>
+      <c r="G4">
+        <v>9.77</v>
+      </c>
+      <c r="H4">
+        <v>361.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>0.491</v>
+      </c>
+      <c r="L4">
+        <v>51.509</v>
+      </c>
+      <c r="M4">
+        <v>0.1389312</v>
+      </c>
+      <c r="N4">
+        <v>51.3700688</v>
+      </c>
+      <c r="O4">
+        <v>7.705510319999999</v>
+      </c>
+      <c r="P4">
+        <v>43.66455848</v>
+      </c>
+      <c r="Q4">
+        <v>44.15555848</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06215102954796824</v>
+      </c>
+      <c r="T4">
+        <v>0.8433901662760471</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>370.7518541551502</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06115018416920995</v>
+      </c>
+      <c r="C5">
+        <v>429.6184499445407</v>
+      </c>
+      <c r="D5">
+        <v>432.7124499445407</v>
+      </c>
+      <c r="E5">
+        <v>-54.636</v>
+      </c>
+      <c r="F5">
+        <v>12.864</v>
+      </c>
+      <c r="G5">
+        <v>9.77</v>
+      </c>
+      <c r="H5">
+        <v>361.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>0.491</v>
+      </c>
+      <c r="L5">
+        <v>51.509</v>
+      </c>
+      <c r="M5">
+        <v>0.2083968</v>
+      </c>
+      <c r="N5">
+        <v>51.3006032</v>
+      </c>
+      <c r="O5">
+        <v>7.695090479999999</v>
+      </c>
+      <c r="P5">
+        <v>43.60551272</v>
+      </c>
+      <c r="Q5">
+        <v>44.09651272</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06261555068990717</v>
+      </c>
+      <c r="T5">
+        <v>0.8508029369730311</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.01377</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>247.1679027701001</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06111695938141104</v>
+      </c>
+      <c r="C6">
+        <v>425.5012644554891</v>
+      </c>
+      <c r="D6">
+        <v>432.8832644554892</v>
+      </c>
+      <c r="E6">
+        <v>-50.348</v>
+      </c>
+      <c r="F6">
+        <v>17.152</v>
+      </c>
+      <c r="G6">
+        <v>9.77</v>
+      </c>
+      <c r="H6">
+        <v>361.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>0.491</v>
+      </c>
+      <c r="L6">
+        <v>51.509</v>
+      </c>
+      <c r="M6">
+        <v>0.2778624</v>
+      </c>
+      <c r="N6">
+        <v>51.2311376</v>
+      </c>
+      <c r="O6">
+        <v>7.68467064</v>
+      </c>
+      <c r="P6">
+        <v>43.54646696</v>
+      </c>
+      <c r="Q6">
+        <v>44.03746696</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06308974935563651</v>
+      </c>
+      <c r="T6">
+        <v>0.8583701403928692</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.01377</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>185.3759270775751</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06108373459361214</v>
+      </c>
+      <c r="C7">
+        <v>421.3842138787547</v>
+      </c>
+      <c r="D7">
+        <v>433.0542138787548</v>
+      </c>
+      <c r="E7">
+        <v>-46.06</v>
+      </c>
+      <c r="F7">
+        <v>21.44</v>
+      </c>
+      <c r="G7">
+        <v>9.77</v>
+      </c>
+      <c r="H7">
+        <v>361.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>52</v>
+      </c>
+      <c r="K7">
+        <v>0.491</v>
+      </c>
+      <c r="L7">
+        <v>51.509</v>
+      </c>
+      <c r="M7">
+        <v>0.347328</v>
+      </c>
+      <c r="N7">
+        <v>51.161672</v>
+      </c>
+      <c r="O7">
+        <v>7.6742508</v>
+      </c>
+      <c r="P7">
+        <v>43.4874212</v>
+      </c>
+      <c r="Q7">
+        <v>43.9784212</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06357393115117067</v>
+      </c>
+      <c r="T7">
+        <v>0.866096653358388</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
+        <v>0.01377</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>148.3007416620601</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06105050980581322</v>
+      </c>
+      <c r="C8">
+        <v>417.2672983742349</v>
+      </c>
+      <c r="D8">
+        <v>433.225298374235</v>
+      </c>
+      <c r="E8">
+        <v>-41.77200000000001</v>
+      </c>
+      <c r="F8">
+        <v>25.728</v>
+      </c>
+      <c r="G8">
+        <v>9.77</v>
+      </c>
+      <c r="H8">
+        <v>361.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>0.491</v>
+      </c>
+      <c r="L8">
+        <v>51.509</v>
+      </c>
+      <c r="M8">
+        <v>0.4167935999999999</v>
+      </c>
+      <c r="N8">
+        <v>51.0922064</v>
+      </c>
+      <c r="O8">
+        <v>7.66383096</v>
+      </c>
+      <c r="P8">
+        <v>43.42837544</v>
+      </c>
+      <c r="Q8">
+        <v>43.91937544</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06406841468703535</v>
+      </c>
+      <c r="T8">
+        <v>0.8739875602167901</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.15</v>
+      </c>
+      <c r="W8">
+        <v>0.01377</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>123.5839513850501</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.0610172850180143</v>
+      </c>
+      <c r="C9">
+        <v>413.1505181020797</v>
+      </c>
+      <c r="D9">
+        <v>433.3965181020798</v>
+      </c>
+      <c r="E9">
+        <v>-37.48399999999999</v>
+      </c>
+      <c r="F9">
+        <v>30.01600000000001</v>
+      </c>
+      <c r="G9">
+        <v>9.77</v>
+      </c>
+      <c r="H9">
+        <v>361.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>0.491</v>
+      </c>
+      <c r="L9">
+        <v>51.509</v>
+      </c>
+      <c r="M9">
+        <v>0.4862592000000001</v>
+      </c>
+      <c r="N9">
+        <v>51.0227408</v>
+      </c>
+      <c r="O9">
+        <v>7.653411119999999</v>
+      </c>
+      <c r="P9">
+        <v>43.36932968</v>
+      </c>
+      <c r="Q9">
+        <v>43.86032968</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06457353227743474</v>
+      </c>
+      <c r="T9">
+        <v>0.8820481639968784</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="W9">
+        <v>0.01377</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>105.9291011871858</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.0609840602302154</v>
+      </c>
+      <c r="C10">
+        <v>409.0338732226925</v>
+      </c>
+      <c r="D10">
+        <v>433.5678732226925</v>
+      </c>
+      <c r="E10">
+        <v>-33.196</v>
+      </c>
+      <c r="F10">
+        <v>34.304</v>
+      </c>
+      <c r="G10">
+        <v>9.77</v>
+      </c>
+      <c r="H10">
+        <v>361.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>0.491</v>
+      </c>
+      <c r="L10">
+        <v>51.509</v>
+      </c>
+      <c r="M10">
+        <v>0.5557248</v>
+      </c>
+      <c r="N10">
+        <v>50.9532752</v>
+      </c>
+      <c r="O10">
+        <v>7.642991279999999</v>
+      </c>
+      <c r="P10">
+        <v>43.31028392</v>
+      </c>
+      <c r="Q10">
+        <v>43.80128392</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06508963068501673</v>
+      </c>
+      <c r="T10">
+        <v>0.890283998293925</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.15</v>
+      </c>
+      <c r="W10">
+        <v>0.01377</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>92.68796353878754</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06095083544241649</v>
+      </c>
+      <c r="C11">
+        <v>404.9173638967304</v>
+      </c>
+      <c r="D11">
+        <v>433.7393638967304</v>
+      </c>
+      <c r="E11">
+        <v>-28.908</v>
+      </c>
+      <c r="F11">
+        <v>38.592</v>
+      </c>
+      <c r="G11">
+        <v>9.77</v>
+      </c>
+      <c r="H11">
+        <v>361.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>0.491</v>
+      </c>
+      <c r="L11">
+        <v>51.509</v>
+      </c>
+      <c r="M11">
+        <v>0.6251903999999999</v>
+      </c>
+      <c r="N11">
+        <v>50.8838096</v>
+      </c>
+      <c r="O11">
+        <v>7.63257144</v>
+      </c>
+      <c r="P11">
+        <v>43.25123816</v>
+      </c>
+      <c r="Q11">
+        <v>43.74223816</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06561707191474339</v>
+      </c>
+      <c r="T11">
+        <v>0.8987008399381595</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.15</v>
+      </c>
+      <c r="W11">
+        <v>0.01377</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>82.38930092336672</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06091761065461759</v>
+      </c>
+      <c r="C12">
+        <v>400.8009902851049</v>
+      </c>
+      <c r="D12">
+        <v>433.910990285105</v>
+      </c>
+      <c r="E12">
+        <v>-24.62</v>
+      </c>
+      <c r="F12">
+        <v>42.88</v>
+      </c>
+      <c r="G12">
+        <v>9.77</v>
+      </c>
+      <c r="H12">
+        <v>361.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>0.491</v>
+      </c>
+      <c r="L12">
+        <v>51.509</v>
+      </c>
+      <c r="M12">
+        <v>0.6946560000000001</v>
+      </c>
+      <c r="N12">
+        <v>50.814344</v>
+      </c>
+      <c r="O12">
+        <v>7.6221516</v>
+      </c>
+      <c r="P12">
+        <v>43.1921924</v>
+      </c>
+      <c r="Q12">
+        <v>43.6831924</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0661562340606862</v>
+      </c>
+      <c r="T12">
+        <v>0.9073047225078216</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.15</v>
+      </c>
+      <c r="W12">
+        <v>0.01377</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>74.15037083103003</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06088438586681868</v>
+      </c>
+      <c r="C13">
+        <v>396.6847525489824</v>
+      </c>
+      <c r="D13">
+        <v>434.0827525489825</v>
+      </c>
+      <c r="E13">
+        <v>-20.332</v>
+      </c>
+      <c r="F13">
+        <v>47.168</v>
+      </c>
+      <c r="G13">
+        <v>9.77</v>
+      </c>
+      <c r="H13">
+        <v>361.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>0.491</v>
+      </c>
+      <c r="L13">
+        <v>51.509</v>
+      </c>
+      <c r="M13">
+        <v>0.7641216</v>
+      </c>
+      <c r="N13">
+        <v>50.7448784</v>
+      </c>
+      <c r="O13">
+        <v>7.61173176</v>
+      </c>
+      <c r="P13">
+        <v>43.13314664</v>
+      </c>
+      <c r="Q13">
+        <v>43.62414664</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06670751220990863</v>
+      </c>
+      <c r="T13">
+        <v>0.9161019507532062</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.15</v>
+      </c>
+      <c r="W13">
+        <v>0.01377</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>67.40942802820912</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06085116107901976</v>
+      </c>
+      <c r="C14">
+        <v>392.5686508497844</v>
+      </c>
+      <c r="D14">
+        <v>434.2546508497844</v>
+      </c>
+      <c r="E14">
+        <v>-16.044</v>
+      </c>
+      <c r="F14">
+        <v>51.456</v>
+      </c>
+      <c r="G14">
+        <v>9.77</v>
+      </c>
+      <c r="H14">
+        <v>361.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>0.491</v>
+      </c>
+      <c r="L14">
+        <v>51.509</v>
+      </c>
+      <c r="M14">
+        <v>0.8335871999999999</v>
+      </c>
+      <c r="N14">
+        <v>50.6754128</v>
+      </c>
+      <c r="O14">
+        <v>7.601311920000001</v>
+      </c>
+      <c r="P14">
+        <v>43.07410088</v>
+      </c>
+      <c r="Q14">
+        <v>43.56510088</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06727131940797701</v>
+      </c>
+      <c r="T14">
+        <v>0.9250991160041678</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
+        <v>0.01377</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>61.79197569252504</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06081793629122085</v>
+      </c>
+      <c r="C15">
+        <v>388.4526853491881</v>
+      </c>
+      <c r="D15">
+        <v>434.4266853491882</v>
+      </c>
+      <c r="E15">
+        <v>-11.75599999999999</v>
+      </c>
+      <c r="F15">
+        <v>55.74400000000001</v>
+      </c>
+      <c r="G15">
+        <v>9.77</v>
+      </c>
+      <c r="H15">
+        <v>361.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>0.491</v>
+      </c>
+      <c r="L15">
+        <v>51.509</v>
+      </c>
+      <c r="M15">
+        <v>0.9030528000000001</v>
+      </c>
+      <c r="N15">
+        <v>50.6059472</v>
+      </c>
+      <c r="O15">
+        <v>7.59089208</v>
+      </c>
+      <c r="P15">
+        <v>43.01505512</v>
+      </c>
+      <c r="Q15">
+        <v>43.50605512</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06784808769105845</v>
+      </c>
+      <c r="T15">
+        <v>0.9343031126402089</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.15</v>
+      </c>
+      <c r="W15">
+        <v>0.01377</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>57.03874679310002</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06078471150342193</v>
+      </c>
+      <c r="C16">
+        <v>384.3368562091272</v>
+      </c>
+      <c r="D16">
+        <v>434.5988562091272</v>
+      </c>
+      <c r="E16">
+        <v>-7.467999999999989</v>
+      </c>
+      <c r="F16">
+        <v>60.03200000000001</v>
+      </c>
+      <c r="G16">
+        <v>9.77</v>
+      </c>
+      <c r="H16">
+        <v>361.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>0.491</v>
+      </c>
+      <c r="L16">
+        <v>51.509</v>
+      </c>
+      <c r="M16">
+        <v>0.9725184000000001</v>
+      </c>
+      <c r="N16">
+        <v>50.5364816</v>
+      </c>
+      <c r="O16">
+        <v>7.58047224</v>
+      </c>
+      <c r="P16">
+        <v>42.95600936</v>
+      </c>
+      <c r="Q16">
+        <v>43.44700936</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06843826919002551</v>
+      </c>
+      <c r="T16">
+        <v>0.9437211557096464</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+      <c r="W16">
+        <v>0.01377</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>52.96455059359288</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06075148671562302</v>
+      </c>
+      <c r="C17">
+        <v>380.2211635917922</v>
+      </c>
+      <c r="D17">
+        <v>434.7711635917922</v>
+      </c>
+      <c r="E17">
+        <v>-3.180000000000007</v>
+      </c>
+      <c r="F17">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="G17">
+        <v>9.77</v>
+      </c>
+      <c r="H17">
+        <v>361.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>0.491</v>
+      </c>
+      <c r="L17">
+        <v>51.509</v>
+      </c>
+      <c r="M17">
+        <v>1.041984</v>
+      </c>
+      <c r="N17">
+        <v>50.467016</v>
+      </c>
+      <c r="O17">
+        <v>7.5700524</v>
+      </c>
+      <c r="P17">
+        <v>42.8969636</v>
+      </c>
+      <c r="Q17">
+        <v>43.3879636</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06904233731249768</v>
+      </c>
+      <c r="T17">
+        <v>0.9533607997924824</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
+      </c>
+      <c r="W17">
+        <v>0.01377</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>49.43358055402003</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06071826192782413</v>
+      </c>
+      <c r="C18">
+        <v>376.1056076596306</v>
+      </c>
+      <c r="D18">
+        <v>434.9436076596306</v>
+      </c>
+      <c r="E18">
+        <v>1.108000000000004</v>
+      </c>
+      <c r="F18">
+        <v>68.608</v>
+      </c>
+      <c r="G18">
+        <v>9.77</v>
+      </c>
+      <c r="H18">
+        <v>361.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>0.491</v>
+      </c>
+      <c r="L18">
+        <v>51.509</v>
+      </c>
+      <c r="M18">
+        <v>1.1114496</v>
+      </c>
+      <c r="N18">
+        <v>50.3975504</v>
+      </c>
+      <c r="O18">
+        <v>7.55963256</v>
+      </c>
+      <c r="P18">
+        <v>42.83791784</v>
+      </c>
+      <c r="Q18">
+        <v>43.32891784</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06966078800931444</v>
+      </c>
+      <c r="T18">
+        <v>0.9632299592106243</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.15</v>
+      </c>
+      <c r="W18">
+        <v>0.01377</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>46.34398176939377</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06068503714002521</v>
+      </c>
+      <c r="C19">
+        <v>371.9901885753483</v>
+      </c>
+      <c r="D19">
+        <v>435.1161885753484</v>
+      </c>
+      <c r="E19">
+        <v>5.396000000000001</v>
+      </c>
+      <c r="F19">
+        <v>72.896</v>
+      </c>
+      <c r="G19">
+        <v>9.77</v>
+      </c>
+      <c r="H19">
+        <v>361.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>0.491</v>
+      </c>
+      <c r="L19">
+        <v>51.509</v>
+      </c>
+      <c r="M19">
+        <v>1.1809152</v>
+      </c>
+      <c r="N19">
+        <v>50.3280848</v>
+      </c>
+      <c r="O19">
+        <v>7.54921272</v>
+      </c>
+      <c r="P19">
+        <v>42.77887208</v>
+      </c>
+      <c r="Q19">
+        <v>43.26987208</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07029414113256049</v>
+      </c>
+      <c r="T19">
+        <v>0.9733369296990825</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.15</v>
+      </c>
+      <c r="W19">
+        <v>0.01377</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>43.61786519472355</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0606518123522263</v>
+      </c>
+      <c r="C20">
+        <v>367.8749065019092</v>
+      </c>
+      <c r="D20">
+        <v>435.2889065019092</v>
+      </c>
+      <c r="E20">
+        <v>9.683999999999997</v>
+      </c>
+      <c r="F20">
+        <v>77.184</v>
+      </c>
+      <c r="G20">
+        <v>9.77</v>
+      </c>
+      <c r="H20">
+        <v>361.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>0.491</v>
+      </c>
+      <c r="L20">
+        <v>51.509</v>
+      </c>
+      <c r="M20">
+        <v>1.2503808</v>
+      </c>
+      <c r="N20">
+        <v>50.2586192</v>
+      </c>
+      <c r="O20">
+        <v>7.538792879999999</v>
+      </c>
+      <c r="P20">
+        <v>42.71982632</v>
+      </c>
+      <c r="Q20">
+        <v>43.21082632</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0709429418929589</v>
+      </c>
+      <c r="T20">
+        <v>0.983690411662869</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.15</v>
+      </c>
+      <c r="W20">
+        <v>0.01377</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>41.19465046168336</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06061858756442739</v>
+      </c>
+      <c r="C21">
+        <v>363.7597616025358</v>
+      </c>
+      <c r="D21">
+        <v>435.4617616025359</v>
+      </c>
+      <c r="E21">
+        <v>13.97200000000001</v>
+      </c>
+      <c r="F21">
+        <v>81.47200000000001</v>
+      </c>
+      <c r="G21">
+        <v>9.77</v>
+      </c>
+      <c r="H21">
+        <v>361.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.491</v>
+      </c>
+      <c r="L21">
+        <v>51.509</v>
+      </c>
+      <c r="M21">
+        <v>1.3198464</v>
+      </c>
+      <c r="N21">
+        <v>50.1891536</v>
+      </c>
+      <c r="O21">
+        <v>7.528373039999999</v>
+      </c>
+      <c r="P21">
+        <v>42.66078056</v>
+      </c>
+      <c r="Q21">
+        <v>43.15178056</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07160776242521899</v>
+      </c>
+      <c r="T21">
+        <v>0.9942995351566255</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+      <c r="W21">
+        <v>0.01377</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>39.02651096370001</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06058536277662848</v>
+      </c>
+      <c r="C22">
+        <v>359.6447540407107</v>
+      </c>
+      <c r="D22">
+        <v>435.6347540407107</v>
+      </c>
+      <c r="E22">
+        <v>18.26000000000001</v>
+      </c>
+      <c r="F22">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="G22">
+        <v>9.77</v>
+      </c>
+      <c r="H22">
+        <v>361.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>0.491</v>
+      </c>
+      <c r="L22">
+        <v>51.509</v>
+      </c>
+      <c r="M22">
+        <v>1.389312</v>
+      </c>
+      <c r="N22">
+        <v>50.119688</v>
+      </c>
+      <c r="O22">
+        <v>7.5179532</v>
+      </c>
+      <c r="P22">
+        <v>42.6017348</v>
+      </c>
+      <c r="Q22">
+        <v>43.0927348</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.0722892034707856</v>
+      </c>
+      <c r="T22">
+        <v>1.005173886737726</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.15</v>
+      </c>
+      <c r="W22">
+        <v>0.01377</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>37.07518541551502</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06055213798882957</v>
+      </c>
+      <c r="C23">
+        <v>355.5298839801756</v>
+      </c>
+      <c r="D23">
+        <v>435.8078839801756</v>
+      </c>
+      <c r="E23">
+        <v>22.548</v>
+      </c>
+      <c r="F23">
+        <v>90.048</v>
+      </c>
+      <c r="G23">
+        <v>9.77</v>
+      </c>
+      <c r="H23">
+        <v>361.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.491</v>
+      </c>
+      <c r="L23">
+        <v>51.509</v>
+      </c>
+      <c r="M23">
+        <v>1.4587776</v>
+      </c>
+      <c r="N23">
+        <v>50.0502224</v>
+      </c>
+      <c r="O23">
+        <v>7.50753336</v>
+      </c>
+      <c r="P23">
+        <v>42.54268904</v>
+      </c>
+      <c r="Q23">
+        <v>43.03368904</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07298789618839187</v>
+      </c>
+      <c r="T23">
+        <v>1.016323538358854</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.15</v>
+      </c>
+      <c r="W23">
+        <v>0.01377</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>35.30970039572859</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06051891320103067</v>
+      </c>
+      <c r="C24">
+        <v>351.415151584933</v>
+      </c>
+      <c r="D24">
+        <v>435.981151584933</v>
+      </c>
+      <c r="E24">
+        <v>26.836</v>
+      </c>
+      <c r="F24">
+        <v>94.336</v>
+      </c>
+      <c r="G24">
+        <v>9.77</v>
+      </c>
+      <c r="H24">
+        <v>361.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.491</v>
+      </c>
+      <c r="L24">
+        <v>51.509</v>
+      </c>
+      <c r="M24">
+        <v>1.5282432</v>
+      </c>
+      <c r="N24">
+        <v>49.9807568</v>
+      </c>
+      <c r="O24">
+        <v>7.49711352</v>
+      </c>
+      <c r="P24">
+        <v>42.48364328</v>
+      </c>
+      <c r="Q24">
+        <v>42.97464328</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07370450410388547</v>
+      </c>
+      <c r="T24">
+        <v>1.027759078483089</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.15</v>
+      </c>
+      <c r="W24">
+        <v>0.01377</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>33.70471401410457</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06048568841323175</v>
+      </c>
+      <c r="C25">
+        <v>347.3005570192465</v>
+      </c>
+      <c r="D25">
+        <v>436.1545570192465</v>
+      </c>
+      <c r="E25">
+        <v>31.12400000000001</v>
+      </c>
+      <c r="F25">
+        <v>98.62400000000001</v>
+      </c>
+      <c r="G25">
+        <v>9.77</v>
+      </c>
+      <c r="H25">
+        <v>361.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>0.491</v>
+      </c>
+      <c r="L25">
+        <v>51.509</v>
+      </c>
+      <c r="M25">
+        <v>1.5977088</v>
+      </c>
+      <c r="N25">
+        <v>49.9112912</v>
+      </c>
+      <c r="O25">
+        <v>7.48669368</v>
+      </c>
+      <c r="P25">
+        <v>42.42459752</v>
+      </c>
+      <c r="Q25">
+        <v>42.91559752</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07443972521198929</v>
+      </c>
+      <c r="T25">
+        <v>1.039491645623537</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
+        <v>0.01377</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>32.23929166566523</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06045246362543284</v>
+      </c>
+      <c r="C26">
+        <v>343.1861004476407</v>
+      </c>
+      <c r="D26">
+        <v>436.3281004476407</v>
+      </c>
+      <c r="E26">
+        <v>35.41199999999999</v>
+      </c>
+      <c r="F26">
+        <v>102.912</v>
+      </c>
+      <c r="G26">
+        <v>9.77</v>
+      </c>
+      <c r="H26">
+        <v>361.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>0.491</v>
+      </c>
+      <c r="L26">
+        <v>51.509</v>
+      </c>
+      <c r="M26">
+        <v>1.6671744</v>
+      </c>
+      <c r="N26">
+        <v>49.8418256</v>
+      </c>
+      <c r="O26">
+        <v>7.476273839999999</v>
+      </c>
+      <c r="P26">
+        <v>42.36555176</v>
+      </c>
+      <c r="Q26">
+        <v>42.85655176</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07519429424399057</v>
+      </c>
+      <c r="T26">
+        <v>1.051532964530839</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.15</v>
+      </c>
+      <c r="W26">
+        <v>0.01377</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>30.89598784626252</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06041923883763393</v>
+      </c>
+      <c r="C27">
+        <v>339.0717820349022</v>
+      </c>
+      <c r="D27">
+        <v>436.5017820349022</v>
+      </c>
+      <c r="E27">
+        <v>39.7</v>
+      </c>
+      <c r="F27">
+        <v>107.2</v>
+      </c>
+      <c r="G27">
+        <v>9.77</v>
+      </c>
+      <c r="H27">
+        <v>361.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>0.491</v>
+      </c>
+      <c r="L27">
+        <v>51.509</v>
+      </c>
+      <c r="M27">
+        <v>1.73664</v>
+      </c>
+      <c r="N27">
+        <v>49.77236</v>
+      </c>
+      <c r="O27">
+        <v>7.465853999999999</v>
+      </c>
+      <c r="P27">
+        <v>42.306506</v>
+      </c>
+      <c r="Q27">
+        <v>42.797506</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07596898511684524</v>
+      </c>
+      <c r="T27">
+        <v>1.063895385275669</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.15</v>
+      </c>
+      <c r="W27">
+        <v>0.01377</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>29.66014833241201</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06038601404983502</v>
+      </c>
+      <c r="C28">
+        <v>334.9576019460804</v>
+      </c>
+      <c r="D28">
+        <v>436.6756019460805</v>
+      </c>
+      <c r="E28">
+        <v>43.98800000000001</v>
+      </c>
+      <c r="F28">
+        <v>111.488</v>
+      </c>
+      <c r="G28">
+        <v>9.77</v>
+      </c>
+      <c r="H28">
+        <v>361.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>52</v>
+      </c>
+      <c r="K28">
+        <v>0.491</v>
+      </c>
+      <c r="L28">
+        <v>51.509</v>
+      </c>
+      <c r="M28">
+        <v>1.8061056</v>
+      </c>
+      <c r="N28">
+        <v>49.7028944</v>
+      </c>
+      <c r="O28">
+        <v>7.455434159999999</v>
+      </c>
+      <c r="P28">
+        <v>42.24746024</v>
+      </c>
+      <c r="Q28">
+        <v>42.73846023999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07676461358085813</v>
+      </c>
+      <c r="T28">
+        <v>1.076591925500089</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.15</v>
+      </c>
+      <c r="W28">
+        <v>0.01377</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>28.51937339655001</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06035278926203612</v>
+      </c>
+      <c r="C29">
+        <v>330.8435603464876</v>
+      </c>
+      <c r="D29">
+        <v>436.8495603464876</v>
+      </c>
+      <c r="E29">
+        <v>48.27600000000001</v>
+      </c>
+      <c r="F29">
+        <v>115.776</v>
+      </c>
+      <c r="G29">
+        <v>9.77</v>
+      </c>
+      <c r="H29">
+        <v>361.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>0.491</v>
+      </c>
+      <c r="L29">
+        <v>51.509</v>
+      </c>
+      <c r="M29">
+        <v>1.8755712</v>
+      </c>
+      <c r="N29">
+        <v>49.6334288</v>
+      </c>
+      <c r="O29">
+        <v>7.445014319999999</v>
+      </c>
+      <c r="P29">
+        <v>42.18841448</v>
+      </c>
+      <c r="Q29">
+        <v>42.67941448</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07758204008498099</v>
+      </c>
+      <c r="T29">
+        <v>1.089636316141616</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.15</v>
+      </c>
+      <c r="W29">
+        <v>0.01377</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>27.4631003077889</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06031956447423721</v>
+      </c>
+      <c r="C30">
+        <v>326.7296574016996</v>
+      </c>
+      <c r="D30">
+        <v>437.0236574016996</v>
+      </c>
+      <c r="E30">
+        <v>52.56400000000002</v>
+      </c>
+      <c r="F30">
+        <v>120.064</v>
+      </c>
+      <c r="G30">
+        <v>9.77</v>
+      </c>
+      <c r="H30">
+        <v>361.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.491</v>
+      </c>
+      <c r="L30">
+        <v>51.509</v>
+      </c>
+      <c r="M30">
+        <v>1.9450368</v>
+      </c>
+      <c r="N30">
+        <v>49.5639632</v>
+      </c>
+      <c r="O30">
+        <v>7.43459448</v>
+      </c>
+      <c r="P30">
+        <v>42.12936872</v>
+      </c>
+      <c r="Q30">
+        <v>42.62036872</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07842217288088502</v>
+      </c>
+      <c r="T30">
+        <v>1.103043050967631</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.15</v>
+      </c>
+      <c r="W30">
+        <v>0.01377</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>26.48227529679644</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.0602863396864383</v>
+      </c>
+      <c r="C31">
+        <v>322.6158932775561</v>
+      </c>
+      <c r="D31">
+        <v>437.1978932775561</v>
+      </c>
+      <c r="E31">
+        <v>56.85199999999999</v>
+      </c>
+      <c r="F31">
+        <v>124.352</v>
+      </c>
+      <c r="G31">
+        <v>9.77</v>
+      </c>
+      <c r="H31">
+        <v>361.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.491</v>
+      </c>
+      <c r="L31">
+        <v>51.509</v>
+      </c>
+      <c r="M31">
+        <v>2.0145024</v>
+      </c>
+      <c r="N31">
+        <v>49.4944976</v>
+      </c>
+      <c r="O31">
+        <v>7.42417464</v>
+      </c>
+      <c r="P31">
+        <v>42.07032296</v>
+      </c>
+      <c r="Q31">
+        <v>42.56132296</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07928597138934972</v>
+      </c>
+      <c r="T31">
+        <v>1.116827440295786</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.15</v>
+      </c>
+      <c r="W31">
+        <v>0.01377</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>25.56909339001036</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06025311489863938</v>
+      </c>
+      <c r="C32">
+        <v>318.5022681401616</v>
+      </c>
+      <c r="D32">
+        <v>437.3722681401616</v>
+      </c>
+      <c r="E32">
+        <v>61.13999999999999</v>
+      </c>
+      <c r="F32">
+        <v>128.64</v>
+      </c>
+      <c r="G32">
+        <v>9.77</v>
+      </c>
+      <c r="H32">
+        <v>361.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>0.491</v>
+      </c>
+      <c r="L32">
+        <v>51.509</v>
+      </c>
+      <c r="M32">
+        <v>2.083968</v>
+      </c>
+      <c r="N32">
+        <v>49.425032</v>
+      </c>
+      <c r="O32">
+        <v>7.4137548</v>
+      </c>
+      <c r="P32">
+        <v>42.0112772</v>
+      </c>
+      <c r="Q32">
+        <v>42.5022772</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08017444985519911</v>
+      </c>
+      <c r="T32">
+        <v>1.131005669319032</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.15</v>
+      </c>
+      <c r="W32">
+        <v>0.01377</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>24.71679027701002</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06021989011084047</v>
+      </c>
+      <c r="C33">
+        <v>314.3887821558855</v>
+      </c>
+      <c r="D33">
+        <v>437.5467821558855</v>
+      </c>
+      <c r="E33">
+        <v>65.428</v>
+      </c>
+      <c r="F33">
+        <v>132.928</v>
+      </c>
+      <c r="G33">
+        <v>9.77</v>
+      </c>
+      <c r="H33">
+        <v>361.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>0.491</v>
+      </c>
+      <c r="L33">
+        <v>51.509</v>
+      </c>
+      <c r="M33">
+        <v>2.1534336</v>
+      </c>
+      <c r="N33">
+        <v>49.3555664</v>
+      </c>
+      <c r="O33">
+        <v>7.40333496</v>
+      </c>
+      <c r="P33">
+        <v>41.95223144</v>
+      </c>
+      <c r="Q33">
+        <v>42.44323144</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08108868132005866</v>
+      </c>
+      <c r="T33">
+        <v>1.145594861502372</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.15</v>
+      </c>
+      <c r="W33">
+        <v>0.01377</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>23.91947446162259</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06018666532304156</v>
+      </c>
+      <c r="C34">
+        <v>310.2754354913628</v>
+      </c>
+      <c r="D34">
+        <v>437.7214354913629</v>
+      </c>
+      <c r="E34">
+        <v>69.71600000000001</v>
+      </c>
+      <c r="F34">
+        <v>137.216</v>
+      </c>
+      <c r="G34">
+        <v>9.77</v>
+      </c>
+      <c r="H34">
+        <v>361.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>52</v>
+      </c>
+      <c r="K34">
+        <v>0.491</v>
+      </c>
+      <c r="L34">
+        <v>51.509</v>
+      </c>
+      <c r="M34">
+        <v>2.2228992</v>
+      </c>
+      <c r="N34">
+        <v>49.2861008</v>
+      </c>
+      <c r="O34">
+        <v>7.39291512</v>
+      </c>
+      <c r="P34">
+        <v>41.89318568</v>
+      </c>
+      <c r="Q34">
+        <v>42.38418568</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08202980194564936</v>
+      </c>
+      <c r="T34">
+        <v>1.160613147573457</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.15</v>
+      </c>
+      <c r="W34">
+        <v>0.01377</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>23.17199088469689</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06015344053524264</v>
+      </c>
+      <c r="C35">
+        <v>306.1622283134952</v>
+      </c>
+      <c r="D35">
+        <v>437.8962283134953</v>
+      </c>
+      <c r="E35">
+        <v>74.00400000000002</v>
+      </c>
+      <c r="F35">
+        <v>141.504</v>
+      </c>
+      <c r="G35">
+        <v>9.77</v>
+      </c>
+      <c r="H35">
+        <v>361.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>0.491</v>
+      </c>
+      <c r="L35">
+        <v>51.509</v>
+      </c>
+      <c r="M35">
+        <v>2.2923648</v>
+      </c>
+      <c r="N35">
+        <v>49.2166352</v>
+      </c>
+      <c r="O35">
+        <v>7.38249528</v>
+      </c>
+      <c r="P35">
+        <v>41.83413992</v>
+      </c>
+      <c r="Q35">
+        <v>42.32513992</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08299901572424276</v>
+      </c>
+      <c r="T35">
+        <v>1.17607974069144</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.15</v>
+      </c>
+      <c r="W35">
+        <v>0.01377</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>22.46980934273637</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06012021574744374</v>
+      </c>
+      <c r="C36">
+        <v>302.0491607894504</v>
+      </c>
+      <c r="D36">
+        <v>438.0711607894504</v>
+      </c>
+      <c r="E36">
+        <v>78.292</v>
+      </c>
+      <c r="F36">
+        <v>145.792</v>
+      </c>
+      <c r="G36">
+        <v>9.77</v>
+      </c>
+      <c r="H36">
+        <v>361.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>52</v>
+      </c>
+      <c r="K36">
+        <v>0.491</v>
+      </c>
+      <c r="L36">
+        <v>51.509</v>
+      </c>
+      <c r="M36">
+        <v>2.3618304</v>
+      </c>
+      <c r="N36">
+        <v>49.1471696</v>
+      </c>
+      <c r="O36">
+        <v>7.37207544</v>
+      </c>
+      <c r="P36">
+        <v>41.77509415999999</v>
+      </c>
+      <c r="Q36">
+        <v>42.26609415999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08399759961733902</v>
+      </c>
+      <c r="T36">
+        <v>1.192015018449362</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.15</v>
+      </c>
+      <c r="W36">
+        <v>0.01377</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>21.80893259736177</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06008699095964483</v>
+      </c>
+      <c r="C37">
+        <v>297.9362330866636</v>
+      </c>
+      <c r="D37">
+        <v>438.2462330866637</v>
+      </c>
+      <c r="E37">
+        <v>82.58000000000001</v>
+      </c>
+      <c r="F37">
+        <v>150.08</v>
+      </c>
+      <c r="G37">
+        <v>9.77</v>
+      </c>
+      <c r="H37">
+        <v>361.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.491</v>
+      </c>
+      <c r="L37">
+        <v>51.509</v>
+      </c>
+      <c r="M37">
+        <v>2.431296</v>
+      </c>
+      <c r="N37">
+        <v>49.077704</v>
+      </c>
+      <c r="O37">
+        <v>7.361655599999999</v>
+      </c>
+      <c r="P37">
+        <v>41.7160484</v>
+      </c>
+      <c r="Q37">
+        <v>42.2070484</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08502690916868437</v>
+      </c>
+      <c r="T37">
+        <v>1.20844061244599</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.15</v>
+      </c>
+      <c r="W37">
+        <v>0.01377</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>21.18582023743715</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06005376617184593</v>
+      </c>
+      <c r="C38">
+        <v>293.8234453728381</v>
+      </c>
+      <c r="D38">
+        <v>438.4214453728381</v>
+      </c>
+      <c r="E38">
+        <v>86.86799999999999</v>
+      </c>
+      <c r="F38">
+        <v>154.368</v>
+      </c>
+      <c r="G38">
+        <v>9.77</v>
+      </c>
+      <c r="H38">
+        <v>361.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.491</v>
+      </c>
+      <c r="L38">
+        <v>51.509</v>
+      </c>
+      <c r="M38">
+        <v>2.5007616</v>
+      </c>
+      <c r="N38">
+        <v>49.0082384</v>
+      </c>
+      <c r="O38">
+        <v>7.35123576</v>
+      </c>
+      <c r="P38">
+        <v>41.65700264</v>
+      </c>
+      <c r="Q38">
+        <v>42.14800264</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08608838464350926</v>
+      </c>
+      <c r="T38">
+        <v>1.225379506255011</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.15</v>
+      </c>
+      <c r="W38">
+        <v>0.01377</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>20.59732523084168</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06002054138404701</v>
+      </c>
+      <c r="C39">
+        <v>289.7107978159449</v>
+      </c>
+      <c r="D39">
+        <v>438.596797815945</v>
+      </c>
+      <c r="E39">
+        <v>91.15600000000001</v>
+      </c>
+      <c r="F39">
+        <v>158.656</v>
+      </c>
+      <c r="G39">
+        <v>9.77</v>
+      </c>
+      <c r="H39">
+        <v>361.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>52</v>
+      </c>
+      <c r="K39">
+        <v>0.491</v>
+      </c>
+      <c r="L39">
+        <v>51.509</v>
+      </c>
+      <c r="M39">
+        <v>2.5702272</v>
+      </c>
+      <c r="N39">
+        <v>48.9387728</v>
+      </c>
+      <c r="O39">
+        <v>7.34081592</v>
+      </c>
+      <c r="P39">
+        <v>41.59795688000001</v>
+      </c>
+      <c r="Q39">
+        <v>42.08895688</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08718355775245556</v>
+      </c>
+      <c r="T39">
+        <v>1.242856142724637</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.15</v>
+      </c>
+      <c r="W39">
+        <v>0.01377</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>20.04064076514325</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.0599873165962481</v>
+      </c>
+      <c r="C40">
+        <v>285.5982905842243</v>
+      </c>
+      <c r="D40">
+        <v>438.7722905842243</v>
+      </c>
+      <c r="E40">
+        <v>95.44400000000002</v>
+      </c>
+      <c r="F40">
+        <v>162.944</v>
+      </c>
+      <c r="G40">
+        <v>9.77</v>
+      </c>
+      <c r="H40">
+        <v>361.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.491</v>
+      </c>
+      <c r="L40">
+        <v>51.509</v>
+      </c>
+      <c r="M40">
+        <v>2.6396928</v>
+      </c>
+      <c r="N40">
+        <v>48.8693072</v>
+      </c>
+      <c r="O40">
+        <v>7.33039608</v>
+      </c>
+      <c r="P40">
+        <v>41.53891112</v>
+      </c>
+      <c r="Q40">
+        <v>42.02991112</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08831405902620662</v>
+      </c>
+      <c r="T40">
+        <v>1.260896541661025</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.15</v>
+      </c>
+      <c r="W40">
+        <v>0.01377</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>19.51325548185001</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05995409180844919</v>
+      </c>
+      <c r="C41">
+        <v>281.4859238461858</v>
+      </c>
+      <c r="D41">
+        <v>438.9479238461857</v>
+      </c>
+      <c r="E41">
+        <v>99.732</v>
+      </c>
+      <c r="F41">
+        <v>167.232</v>
+      </c>
+      <c r="G41">
+        <v>9.77</v>
+      </c>
+      <c r="H41">
+        <v>361.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>52</v>
+      </c>
+      <c r="K41">
+        <v>0.491</v>
+      </c>
+      <c r="L41">
+        <v>51.509</v>
+      </c>
+      <c r="M41">
+        <v>2.7091584</v>
+      </c>
+      <c r="N41">
+        <v>48.7998416</v>
+      </c>
+      <c r="O41">
+        <v>7.31997624</v>
+      </c>
+      <c r="P41">
+        <v>41.47986536</v>
+      </c>
+      <c r="Q41">
+        <v>41.97086536</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08948162591549047</v>
+      </c>
+      <c r="T41">
+        <v>1.279528429087131</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.15</v>
+      </c>
+      <c r="W41">
+        <v>0.01377</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>19.01291559770001</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05992086702065029</v>
+      </c>
+      <c r="C42">
+        <v>277.3736977706086</v>
+      </c>
+      <c r="D42">
+        <v>439.1236977706086</v>
+      </c>
+      <c r="E42">
+        <v>104.02</v>
+      </c>
+      <c r="F42">
+        <v>171.52</v>
+      </c>
+      <c r="G42">
+        <v>9.77</v>
+      </c>
+      <c r="H42">
+        <v>361.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>0.491</v>
+      </c>
+      <c r="L42">
+        <v>51.509</v>
+      </c>
+      <c r="M42">
+        <v>2.778624</v>
+      </c>
+      <c r="N42">
+        <v>48.730376</v>
+      </c>
+      <c r="O42">
+        <v>7.3095564</v>
+      </c>
+      <c r="P42">
+        <v>41.4208196</v>
+      </c>
+      <c r="Q42">
+        <v>41.9118196</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09068811170108382</v>
+      </c>
+      <c r="T42">
+        <v>1.29878137942744</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.15</v>
+      </c>
+      <c r="W42">
+        <v>0.01377</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>18.53759270775751</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.05988764223285137</v>
+      </c>
+      <c r="C43">
+        <v>273.261612526543</v>
+      </c>
+      <c r="D43">
+        <v>439.299612526543</v>
+      </c>
+      <c r="E43">
+        <v>108.308</v>
+      </c>
+      <c r="F43">
+        <v>175.808</v>
+      </c>
+      <c r="G43">
+        <v>9.77</v>
+      </c>
+      <c r="H43">
+        <v>361.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>52</v>
+      </c>
+      <c r="K43">
+        <v>0.491</v>
+      </c>
+      <c r="L43">
+        <v>51.509</v>
+      </c>
+      <c r="M43">
+        <v>2.8480896</v>
+      </c>
+      <c r="N43">
+        <v>48.6609104</v>
+      </c>
+      <c r="O43">
+        <v>7.299136559999999</v>
+      </c>
+      <c r="P43">
+        <v>41.36177384</v>
+      </c>
+      <c r="Q43">
+        <v>41.85277384</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09193549530991758</v>
+      </c>
+      <c r="T43">
+        <v>1.318686972152166</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.15</v>
+      </c>
+      <c r="W43">
+        <v>0.01377</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>18.08545630025123</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05985441744505247</v>
+      </c>
+      <c r="C44">
+        <v>269.1496682833094</v>
+      </c>
+      <c r="D44">
+        <v>439.4756682833094</v>
+      </c>
+      <c r="E44">
+        <v>112.596</v>
+      </c>
+      <c r="F44">
+        <v>180.096</v>
+      </c>
+      <c r="G44">
+        <v>9.77</v>
+      </c>
+      <c r="H44">
+        <v>361.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>52</v>
+      </c>
+      <c r="K44">
+        <v>0.491</v>
+      </c>
+      <c r="L44">
+        <v>51.509</v>
+      </c>
+      <c r="M44">
+        <v>2.9175552</v>
+      </c>
+      <c r="N44">
+        <v>48.5914448</v>
+      </c>
+      <c r="O44">
+        <v>7.288716719999999</v>
+      </c>
+      <c r="P44">
+        <v>41.30272808</v>
+      </c>
+      <c r="Q44">
+        <v>41.79372808</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09322589214664218</v>
+      </c>
+      <c r="T44">
+        <v>1.339278964626021</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.15</v>
+      </c>
+      <c r="W44">
+        <v>0.01377</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>17.6548501978643</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05982119265725355</v>
+      </c>
+      <c r="C45">
+        <v>265.0378652105006</v>
+      </c>
+      <c r="D45">
+        <v>439.6518652105006</v>
+      </c>
+      <c r="E45">
+        <v>116.884</v>
+      </c>
+      <c r="F45">
+        <v>184.384</v>
+      </c>
+      <c r="G45">
+        <v>9.77</v>
+      </c>
+      <c r="H45">
+        <v>361.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>52</v>
+      </c>
+      <c r="K45">
+        <v>0.491</v>
+      </c>
+      <c r="L45">
+        <v>51.509</v>
+      </c>
+      <c r="M45">
+        <v>2.9870208</v>
+      </c>
+      <c r="N45">
+        <v>48.5219792</v>
+      </c>
+      <c r="O45">
+        <v>7.278296879999999</v>
+      </c>
+      <c r="P45">
+        <v>41.24368232</v>
+      </c>
+      <c r="Q45">
+        <v>41.73468232</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09456156606535709</v>
+      </c>
+      <c r="T45">
+        <v>1.36059348315159</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.15</v>
+      </c>
+      <c r="W45">
+        <v>0.01377</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>17.24427228628605</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05978796786945464</v>
+      </c>
+      <c r="C46">
+        <v>260.9262034779808</v>
+      </c>
+      <c r="D46">
+        <v>439.8282034779808</v>
+      </c>
+      <c r="E46">
+        <v>121.172</v>
+      </c>
+      <c r="F46">
+        <v>188.672</v>
+      </c>
+      <c r="G46">
+        <v>9.77</v>
+      </c>
+      <c r="H46">
+        <v>361.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>52</v>
+      </c>
+      <c r="K46">
+        <v>0.491</v>
+      </c>
+      <c r="L46">
+        <v>51.509</v>
+      </c>
+      <c r="M46">
+        <v>3.0564864</v>
+      </c>
+      <c r="N46">
+        <v>48.4525136</v>
+      </c>
+      <c r="O46">
+        <v>7.26787704</v>
+      </c>
+      <c r="P46">
+        <v>41.18463656</v>
+      </c>
+      <c r="Q46">
+        <v>41.67563656</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09594494262402614</v>
+      </c>
+      <c r="T46">
+        <v>1.382669234481644</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.15</v>
+      </c>
+      <c r="W46">
+        <v>0.01377</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>16.85235700705228</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05975474308165574</v>
+      </c>
+      <c r="C47">
+        <v>256.8146832558874</v>
+      </c>
+      <c r="D47">
+        <v>440.0046832558874</v>
+      </c>
+      <c r="E47">
+        <v>125.46</v>
+      </c>
+      <c r="F47">
+        <v>192.96</v>
+      </c>
+      <c r="G47">
+        <v>9.77</v>
+      </c>
+      <c r="H47">
+        <v>361.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>52</v>
+      </c>
+      <c r="K47">
+        <v>0.491</v>
+      </c>
+      <c r="L47">
+        <v>51.509</v>
+      </c>
+      <c r="M47">
+        <v>3.125952</v>
+      </c>
+      <c r="N47">
+        <v>48.383048</v>
+      </c>
+      <c r="O47">
+        <v>7.2574572</v>
+      </c>
+      <c r="P47">
+        <v>41.1255908</v>
+      </c>
+      <c r="Q47">
+        <v>41.6165908</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0973786237848286</v>
+      </c>
+      <c r="T47">
+        <v>1.405547740405518</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.15</v>
+      </c>
+      <c r="W47">
+        <v>0.01377</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>16.47786018467334</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05972151829385683</v>
+      </c>
+      <c r="C48">
+        <v>252.7033047146305</v>
+      </c>
+      <c r="D48">
+        <v>440.1813047146305</v>
+      </c>
+      <c r="E48">
+        <v>129.748</v>
+      </c>
+      <c r="F48">
+        <v>197.248</v>
+      </c>
+      <c r="G48">
+        <v>9.77</v>
+      </c>
+      <c r="H48">
+        <v>361.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>52</v>
+      </c>
+      <c r="K48">
+        <v>0.491</v>
+      </c>
+      <c r="L48">
+        <v>51.509</v>
+      </c>
+      <c r="M48">
+        <v>3.1954176</v>
+      </c>
+      <c r="N48">
+        <v>48.3135824</v>
+      </c>
+      <c r="O48">
+        <v>7.24703736</v>
+      </c>
+      <c r="P48">
+        <v>41.06654504</v>
+      </c>
+      <c r="Q48">
+        <v>41.55754504</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09886540424788301</v>
+      </c>
+      <c r="T48">
+        <v>1.429273598400646</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.15</v>
+      </c>
+      <c r="W48">
+        <v>0.01377</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>16.11964583283262</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05968829350605791</v>
+      </c>
+      <c r="C49">
+        <v>248.5920680248943</v>
+      </c>
+      <c r="D49">
+        <v>440.3580680248944</v>
+      </c>
+      <c r="E49">
+        <v>134.036</v>
+      </c>
+      <c r="F49">
+        <v>201.536</v>
+      </c>
+      <c r="G49">
+        <v>9.77</v>
+      </c>
+      <c r="H49">
+        <v>361.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>52</v>
+      </c>
+      <c r="K49">
+        <v>0.491</v>
+      </c>
+      <c r="L49">
+        <v>51.509</v>
+      </c>
+      <c r="M49">
+        <v>3.2648832</v>
+      </c>
+      <c r="N49">
+        <v>48.2441168</v>
+      </c>
+      <c r="O49">
+        <v>7.236617519999999</v>
+      </c>
+      <c r="P49">
+        <v>41.00749928</v>
+      </c>
+      <c r="Q49">
+        <v>41.49849928</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1004082896340715</v>
+      </c>
+      <c r="T49">
+        <v>1.453894771791817</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.15</v>
+      </c>
+      <c r="W49">
+        <v>0.01377</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>15.77667464490001</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.059655068718259</v>
+      </c>
+      <c r="C50">
+        <v>244.4809733576371</v>
+      </c>
+      <c r="D50">
+        <v>440.5349733576371</v>
+      </c>
+      <c r="E50">
+        <v>138.324</v>
+      </c>
+      <c r="F50">
+        <v>205.824</v>
+      </c>
+      <c r="G50">
+        <v>9.77</v>
+      </c>
+      <c r="H50">
+        <v>361.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>52</v>
+      </c>
+      <c r="K50">
+        <v>0.491</v>
+      </c>
+      <c r="L50">
+        <v>51.509</v>
+      </c>
+      <c r="M50">
+        <v>3.334348799999999</v>
+      </c>
+      <c r="N50">
+        <v>48.1746512</v>
+      </c>
+      <c r="O50">
+        <v>7.226197679999999</v>
+      </c>
+      <c r="P50">
+        <v>40.94845352</v>
+      </c>
+      <c r="Q50">
+        <v>41.43945352</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1020105167658827</v>
+      </c>
+      <c r="T50">
+        <v>1.479462913390341</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.15</v>
+      </c>
+      <c r="W50">
+        <v>0.01377</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>15.44799392313126</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05962184393046008</v>
+      </c>
+      <c r="C51">
+        <v>240.3700208840919</v>
+      </c>
+      <c r="D51">
+        <v>440.7120208840919</v>
+      </c>
+      <c r="E51">
+        <v>142.612</v>
+      </c>
+      <c r="F51">
+        <v>210.112</v>
+      </c>
+      <c r="G51">
+        <v>9.77</v>
+      </c>
+      <c r="H51">
+        <v>361.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>52</v>
+      </c>
+      <c r="K51">
+        <v>0.491</v>
+      </c>
+      <c r="L51">
+        <v>51.509</v>
+      </c>
+      <c r="M51">
+        <v>3.4038144</v>
+      </c>
+      <c r="N51">
+        <v>48.1051856</v>
+      </c>
+      <c r="O51">
+        <v>7.215777839999999</v>
+      </c>
+      <c r="P51">
+        <v>40.88940776</v>
+      </c>
+      <c r="Q51">
+        <v>41.38040776</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1036755763342355</v>
+      </c>
+      <c r="T51">
+        <v>1.506033727208414</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.15</v>
+      </c>
+      <c r="W51">
+        <v>0.01377</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>15.13272874102654</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05958861914266119</v>
+      </c>
+      <c r="C52">
+        <v>236.2592107757671</v>
+      </c>
+      <c r="D52">
+        <v>440.8892107757671</v>
+      </c>
+      <c r="E52">
+        <v>146.9</v>
+      </c>
+      <c r="F52">
+        <v>214.4</v>
+      </c>
+      <c r="G52">
+        <v>9.77</v>
+      </c>
+      <c r="H52">
+        <v>361.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>52</v>
+      </c>
+      <c r="K52">
+        <v>0.491</v>
+      </c>
+      <c r="L52">
+        <v>51.509</v>
+      </c>
+      <c r="M52">
+        <v>3.47328</v>
+      </c>
+      <c r="N52">
+        <v>48.03572</v>
+      </c>
+      <c r="O52">
+        <v>7.205357999999999</v>
+      </c>
+      <c r="P52">
+        <v>40.830362</v>
+      </c>
+      <c r="Q52">
+        <v>41.321362</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1054072382853224</v>
+      </c>
+      <c r="T52">
+        <v>1.533667373579211</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.15</v>
+      </c>
+      <c r="W52">
+        <v>0.01377</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>14.83007416620601</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05955539435486228</v>
+      </c>
+      <c r="C53">
+        <v>232.1485432044475</v>
+      </c>
+      <c r="D53">
+        <v>441.0665432044475</v>
+      </c>
+      <c r="E53">
+        <v>151.188</v>
+      </c>
+      <c r="F53">
+        <v>218.688</v>
+      </c>
+      <c r="G53">
+        <v>9.77</v>
+      </c>
+      <c r="H53">
+        <v>361.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>52</v>
+      </c>
+      <c r="K53">
+        <v>0.491</v>
+      </c>
+      <c r="L53">
+        <v>51.509</v>
+      </c>
+      <c r="M53">
+        <v>3.5427456</v>
+      </c>
+      <c r="N53">
+        <v>47.9662544</v>
+      </c>
+      <c r="O53">
+        <v>7.19493816</v>
+      </c>
+      <c r="P53">
+        <v>40.77131624</v>
+      </c>
+      <c r="Q53">
+        <v>41.26231624</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1072095803160455</v>
+      </c>
+      <c r="T53">
+        <v>1.56242892388351</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.15</v>
+      </c>
+      <c r="W53">
+        <v>0.01377</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>14.53928839824118</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05952216956706336</v>
+      </c>
+      <c r="C54">
+        <v>228.0380183421939</v>
+      </c>
+      <c r="D54">
+        <v>441.2440183421939</v>
+      </c>
+      <c r="E54">
+        <v>155.476</v>
+      </c>
+      <c r="F54">
+        <v>222.976</v>
+      </c>
+      <c r="G54">
+        <v>9.77</v>
+      </c>
+      <c r="H54">
+        <v>361.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>52</v>
+      </c>
+      <c r="K54">
+        <v>0.491</v>
+      </c>
+      <c r="L54">
+        <v>51.509</v>
+      </c>
+      <c r="M54">
+        <v>3.6122112</v>
+      </c>
+      <c r="N54">
+        <v>47.8967888</v>
+      </c>
+      <c r="O54">
+        <v>7.18451832</v>
+      </c>
+      <c r="P54">
+        <v>40.71227048</v>
+      </c>
+      <c r="Q54">
+        <v>41.20327048</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.109087019931382</v>
+      </c>
+      <c r="T54">
+        <v>1.592388872117154</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.15</v>
+      </c>
+      <c r="W54">
+        <v>0.01377</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>14.25968669827501</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05948894477926445</v>
+      </c>
+      <c r="C55">
+        <v>223.9276363613442</v>
+      </c>
+      <c r="D55">
+        <v>441.4216363613443</v>
+      </c>
+      <c r="E55">
+        <v>159.764</v>
+      </c>
+      <c r="F55">
+        <v>227.264</v>
+      </c>
+      <c r="G55">
+        <v>9.77</v>
+      </c>
+      <c r="H55">
+        <v>361.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>52</v>
+      </c>
+      <c r="K55">
+        <v>0.491</v>
+      </c>
+      <c r="L55">
+        <v>51.509</v>
+      </c>
+      <c r="M55">
+        <v>3.6816768</v>
+      </c>
+      <c r="N55">
+        <v>47.8273232</v>
+      </c>
+      <c r="O55">
+        <v>7.17409848</v>
+      </c>
+      <c r="P55">
+        <v>40.65322472</v>
+      </c>
+      <c r="Q55">
+        <v>41.14422472</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1110443505941797</v>
+      </c>
+      <c r="T55">
+        <v>1.623623711764996</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.15</v>
+      </c>
+      <c r="W55">
+        <v>0.01377</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>13.99063600585472</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06019011999146555</v>
+      </c>
+      <c r="C56">
+        <v>215.9212687792324</v>
+      </c>
+      <c r="D56">
+        <v>437.7032687792325</v>
+      </c>
+      <c r="E56">
+        <v>164.052</v>
+      </c>
+      <c r="F56">
+        <v>231.552</v>
+      </c>
+      <c r="G56">
+        <v>9.77</v>
+      </c>
+      <c r="H56">
+        <v>361.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>52</v>
+      </c>
+      <c r="K56">
+        <v>0.491</v>
+      </c>
+      <c r="L56">
+        <v>51.509</v>
+      </c>
+      <c r="M56">
+        <v>4.121625600000001</v>
+      </c>
+      <c r="N56">
+        <v>47.3873744</v>
+      </c>
+      <c r="O56">
+        <v>7.108106159999999</v>
+      </c>
+      <c r="P56">
+        <v>40.27926824</v>
+      </c>
+      <c r="Q56">
+        <v>40.77026824</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1130867825901425</v>
+      </c>
+      <c r="T56">
+        <v>1.656216587919266</v>
+      </c>
+      <c r="U56">
+        <v>0.0178</v>
+      </c>
+      <c r="V56">
+        <v>0.15</v>
+      </c>
+      <c r="W56">
+        <v>0.01513</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>12.49725351084776</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06017049520366664</v>
+      </c>
+      <c r="C57">
+        <v>211.7364876994328</v>
+      </c>
+      <c r="D57">
+        <v>437.8064876994328</v>
+      </c>
+      <c r="E57">
+        <v>168.34</v>
+      </c>
+      <c r="F57">
+        <v>235.84</v>
+      </c>
+      <c r="G57">
+        <v>9.77</v>
+      </c>
+      <c r="H57">
+        <v>361.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>52</v>
+      </c>
+      <c r="K57">
+        <v>0.491</v>
+      </c>
+      <c r="L57">
+        <v>51.509</v>
+      </c>
+      <c r="M57">
+        <v>4.197952000000001</v>
+      </c>
+      <c r="N57">
+        <v>47.311048</v>
+      </c>
+      <c r="O57">
+        <v>7.0966572</v>
+      </c>
+      <c r="P57">
+        <v>40.2143908</v>
+      </c>
+      <c r="Q57">
+        <v>40.7053908</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1152199893414814</v>
+      </c>
+      <c r="T57">
+        <v>1.690258036347059</v>
+      </c>
+      <c r="U57">
+        <v>0.0178</v>
+      </c>
+      <c r="V57">
+        <v>0.15</v>
+      </c>
+      <c r="W57">
+        <v>0.01513</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>12.27003071974143</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06015087041586772</v>
+      </c>
+      <c r="C58">
+        <v>207.5517553131626</v>
+      </c>
+      <c r="D58">
+        <v>437.9097553131626</v>
+      </c>
+      <c r="E58">
+        <v>172.628</v>
+      </c>
+      <c r="F58">
+        <v>240.128</v>
+      </c>
+      <c r="G58">
+        <v>9.77</v>
+      </c>
+      <c r="H58">
+        <v>361.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>0.491</v>
+      </c>
+      <c r="L58">
+        <v>51.509</v>
+      </c>
+      <c r="M58">
+        <v>4.274278400000001</v>
+      </c>
+      <c r="N58">
+        <v>47.2347216</v>
+      </c>
+      <c r="O58">
+        <v>7.08520824</v>
+      </c>
+      <c r="P58">
+        <v>40.14951336</v>
+      </c>
+      <c r="Q58">
+        <v>40.64051336</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.117450160036063</v>
+      </c>
+      <c r="T58">
+        <v>1.725846823339751</v>
+      </c>
+      <c r="U58">
+        <v>0.0178</v>
+      </c>
+      <c r="V58">
+        <v>0.15</v>
+      </c>
+      <c r="W58">
+        <v>0.01513</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>12.05092302831748</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06013124562806881</v>
+      </c>
+      <c r="C59">
+        <v>203.3670716548869</v>
+      </c>
+      <c r="D59">
+        <v>438.0130716548869</v>
+      </c>
+      <c r="E59">
+        <v>176.916</v>
+      </c>
+      <c r="F59">
+        <v>244.416</v>
+      </c>
+      <c r="G59">
+        <v>9.77</v>
+      </c>
+      <c r="H59">
+        <v>361.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>0.491</v>
+      </c>
+      <c r="L59">
+        <v>51.509</v>
+      </c>
+      <c r="M59">
+        <v>4.3506048</v>
+      </c>
+      <c r="N59">
+        <v>47.1583952</v>
+      </c>
+      <c r="O59">
+        <v>7.07375928</v>
+      </c>
+      <c r="P59">
+        <v>40.08463592</v>
+      </c>
+      <c r="Q59">
+        <v>40.57563592</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.11978405960016</v>
+      </c>
+      <c r="T59">
+        <v>1.763090902750708</v>
+      </c>
+      <c r="U59">
+        <v>0.0178</v>
+      </c>
+      <c r="V59">
+        <v>0.15</v>
+      </c>
+      <c r="W59">
+        <v>0.01513</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>11.8395033260663</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.0601116208402699</v>
+      </c>
+      <c r="C60">
+        <v>199.1824367591032</v>
+      </c>
+      <c r="D60">
+        <v>438.1164367591032</v>
+      </c>
+      <c r="E60">
+        <v>181.204</v>
+      </c>
+      <c r="F60">
+        <v>248.704</v>
+      </c>
+      <c r="G60">
+        <v>9.77</v>
+      </c>
+      <c r="H60">
+        <v>361.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>52</v>
+      </c>
+      <c r="K60">
+        <v>0.491</v>
+      </c>
+      <c r="L60">
+        <v>51.509</v>
+      </c>
+      <c r="M60">
+        <v>4.426931199999999</v>
+      </c>
+      <c r="N60">
+        <v>47.0820688</v>
+      </c>
+      <c r="O60">
+        <v>7.06231032</v>
+      </c>
+      <c r="P60">
+        <v>40.01975848</v>
+      </c>
+      <c r="Q60">
+        <v>40.51075848</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1222290972387379</v>
+      </c>
+      <c r="T60">
+        <v>1.802108509752663</v>
+      </c>
+      <c r="U60">
+        <v>0.0178</v>
+      </c>
+      <c r="V60">
+        <v>0.15</v>
+      </c>
+      <c r="W60">
+        <v>0.01513</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>11.6353739583755</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06009199605247098</v>
+      </c>
+      <c r="C61">
+        <v>194.9978506603413</v>
+      </c>
+      <c r="D61">
+        <v>438.2198506603413</v>
+      </c>
+      <c r="E61">
+        <v>185.492</v>
+      </c>
+      <c r="F61">
+        <v>252.992</v>
+      </c>
+      <c r="G61">
+        <v>9.77</v>
+      </c>
+      <c r="H61">
+        <v>361.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>0.491</v>
+      </c>
+      <c r="L61">
+        <v>51.509</v>
+      </c>
+      <c r="M61">
+        <v>4.5032576</v>
+      </c>
+      <c r="N61">
+        <v>47.0057424</v>
+      </c>
+      <c r="O61">
+        <v>7.05086136</v>
+      </c>
+      <c r="P61">
+        <v>39.95488104</v>
+      </c>
+      <c r="Q61">
+        <v>40.44588104</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1247934050060268</v>
+      </c>
+      <c r="T61">
+        <v>1.843029414657153</v>
+      </c>
+      <c r="U61">
+        <v>0.0178</v>
+      </c>
+      <c r="V61">
+        <v>0.15</v>
+      </c>
+      <c r="W61">
+        <v>0.01513</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>11.43816423026744</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06007237126467208</v>
+      </c>
+      <c r="C62">
+        <v>190.813313393164</v>
+      </c>
+      <c r="D62">
+        <v>438.323313393164</v>
+      </c>
+      <c r="E62">
+        <v>189.78</v>
+      </c>
+      <c r="F62">
+        <v>257.28</v>
+      </c>
+      <c r="G62">
+        <v>9.77</v>
+      </c>
+      <c r="H62">
+        <v>361.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>52</v>
+      </c>
+      <c r="K62">
+        <v>0.491</v>
+      </c>
+      <c r="L62">
+        <v>51.509</v>
+      </c>
+      <c r="M62">
+        <v>4.579584</v>
+      </c>
+      <c r="N62">
+        <v>46.929416</v>
+      </c>
+      <c r="O62">
+        <v>7.039412400000001</v>
+      </c>
+      <c r="P62">
+        <v>39.8900036</v>
+      </c>
+      <c r="Q62">
+        <v>40.3810036</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1274859281616802</v>
+      </c>
+      <c r="T62">
+        <v>1.885996364806867</v>
+      </c>
+      <c r="U62">
+        <v>0.0178</v>
+      </c>
+      <c r="V62">
+        <v>0.15</v>
+      </c>
+      <c r="W62">
+        <v>0.01513</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>11.24752815976298</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06005274647687317</v>
+      </c>
+      <c r="C63">
+        <v>186.6288249921663</v>
+      </c>
+      <c r="D63">
+        <v>438.4268249921663</v>
+      </c>
+      <c r="E63">
+        <v>194.068</v>
+      </c>
+      <c r="F63">
+        <v>261.568</v>
+      </c>
+      <c r="G63">
+        <v>9.77</v>
+      </c>
+      <c r="H63">
+        <v>361.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>52</v>
+      </c>
+      <c r="K63">
+        <v>0.491</v>
+      </c>
+      <c r="L63">
+        <v>51.509</v>
+      </c>
+      <c r="M63">
+        <v>4.6559104</v>
+      </c>
+      <c r="N63">
+        <v>46.8530896</v>
+      </c>
+      <c r="O63">
+        <v>7.027963440000001</v>
+      </c>
+      <c r="P63">
+        <v>39.82512616</v>
+      </c>
+      <c r="Q63">
+        <v>40.31612616</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1303165294278799</v>
+      </c>
+      <c r="T63">
+        <v>1.931166748297592</v>
+      </c>
+      <c r="U63">
+        <v>0.0178</v>
+      </c>
+      <c r="V63">
+        <v>0.15</v>
+      </c>
+      <c r="W63">
+        <v>0.01513</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>11.06314245222589</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06003312168907426</v>
+      </c>
+      <c r="C64">
+        <v>182.4443854919763</v>
+      </c>
+      <c r="D64">
+        <v>438.5303854919763</v>
+      </c>
+      <c r="E64">
+        <v>198.356</v>
+      </c>
+      <c r="F64">
+        <v>265.856</v>
+      </c>
+      <c r="G64">
+        <v>9.77</v>
+      </c>
+      <c r="H64">
+        <v>361.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>52</v>
+      </c>
+      <c r="K64">
+        <v>0.491</v>
+      </c>
+      <c r="L64">
+        <v>51.509</v>
+      </c>
+      <c r="M64">
+        <v>4.7322368</v>
+      </c>
+      <c r="N64">
+        <v>46.7767632</v>
+      </c>
+      <c r="O64">
+        <v>7.01651448</v>
+      </c>
+      <c r="P64">
+        <v>39.76024872</v>
+      </c>
+      <c r="Q64">
+        <v>40.25124872</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1332961097080902</v>
+      </c>
+      <c r="T64">
+        <v>1.978714520393093</v>
+      </c>
+      <c r="U64">
+        <v>0.0178</v>
+      </c>
+      <c r="V64">
+        <v>0.15</v>
+      </c>
+      <c r="W64">
+        <v>0.01513</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>10.88470467073837</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06001349690127535</v>
+      </c>
+      <c r="C65">
+        <v>178.2599949272547</v>
+      </c>
+      <c r="D65">
+        <v>438.6339949272547</v>
+      </c>
+      <c r="E65">
+        <v>202.644</v>
+      </c>
+      <c r="F65">
+        <v>270.144</v>
+      </c>
+      <c r="G65">
+        <v>9.77</v>
+      </c>
+      <c r="H65">
+        <v>361.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>52</v>
+      </c>
+      <c r="K65">
+        <v>0.491</v>
+      </c>
+      <c r="L65">
+        <v>51.509</v>
+      </c>
+      <c r="M65">
+        <v>4.8085632</v>
+      </c>
+      <c r="N65">
+        <v>46.7004368</v>
+      </c>
+      <c r="O65">
+        <v>7.00506552</v>
+      </c>
+      <c r="P65">
+        <v>39.69537128</v>
+      </c>
+      <c r="Q65">
+        <v>40.18637128</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1364367483818253</v>
+      </c>
+      <c r="T65">
+        <v>2.028832442331593</v>
+      </c>
+      <c r="U65">
+        <v>0.0178</v>
+      </c>
+      <c r="V65">
+        <v>0.15</v>
+      </c>
+      <c r="W65">
+        <v>0.01513</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>10.71193158072665</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06119067211347645</v>
+      </c>
+      <c r="C66">
+        <v>167.842476404998</v>
+      </c>
+      <c r="D66">
+        <v>432.504476404998</v>
+      </c>
+      <c r="E66">
+        <v>206.932</v>
+      </c>
+      <c r="F66">
+        <v>274.432</v>
+      </c>
+      <c r="G66">
+        <v>9.77</v>
+      </c>
+      <c r="H66">
+        <v>361.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>52</v>
+      </c>
+      <c r="K66">
+        <v>0.491</v>
+      </c>
+      <c r="L66">
+        <v>51.509</v>
+      </c>
+      <c r="M66">
+        <v>5.488639999999999</v>
+      </c>
+      <c r="N66">
+        <v>46.02036</v>
+      </c>
+      <c r="O66">
+        <v>6.903054</v>
+      </c>
+      <c r="P66">
+        <v>39.11730600000001</v>
+      </c>
+      <c r="Q66">
+        <v>39.60830600000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.139751866981879</v>
+      </c>
+      <c r="T66">
+        <v>2.081734693266677</v>
+      </c>
+      <c r="U66">
+        <v>0.02</v>
+      </c>
+      <c r="V66">
+        <v>0.15</v>
+      </c>
+      <c r="W66">
+        <v>0.017</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>9.38465630830224</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06118974732567753</v>
+      </c>
+      <c r="C67">
+        <v>163.5592245112801</v>
+      </c>
+      <c r="D67">
+        <v>432.5092245112802</v>
+      </c>
+      <c r="E67">
+        <v>211.22</v>
+      </c>
+      <c r="F67">
+        <v>278.72</v>
+      </c>
+      <c r="G67">
+        <v>9.77</v>
+      </c>
+      <c r="H67">
+        <v>361.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>52</v>
+      </c>
+      <c r="K67">
+        <v>0.491</v>
+      </c>
+      <c r="L67">
+        <v>51.509</v>
+      </c>
+      <c r="M67">
+        <v>5.5744</v>
+      </c>
+      <c r="N67">
+        <v>45.9346</v>
+      </c>
+      <c r="O67">
+        <v>6.89019</v>
+      </c>
+      <c r="P67">
+        <v>39.04441</v>
+      </c>
+      <c r="Q67">
+        <v>39.53541</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1432564209305073</v>
+      </c>
+      <c r="T67">
+        <v>2.137659929969479</v>
+      </c>
+      <c r="U67">
+        <v>0.02</v>
+      </c>
+      <c r="V67">
+        <v>0.15</v>
+      </c>
+      <c r="W67">
+        <v>0.017</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>9.240276980482205</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06118882253787863</v>
+      </c>
+      <c r="C68">
+        <v>159.2759727218144</v>
+      </c>
+      <c r="D68">
+        <v>432.5139727218145</v>
+      </c>
+      <c r="E68">
+        <v>215.508</v>
+      </c>
+      <c r="F68">
+        <v>283.008</v>
+      </c>
+      <c r="G68">
+        <v>9.77</v>
+      </c>
+      <c r="H68">
+        <v>361.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>52</v>
+      </c>
+      <c r="K68">
+        <v>0.491</v>
+      </c>
+      <c r="L68">
+        <v>51.509</v>
+      </c>
+      <c r="M68">
+        <v>5.66016</v>
+      </c>
+      <c r="N68">
+        <v>45.84884</v>
+      </c>
+      <c r="O68">
+        <v>6.877326</v>
+      </c>
+      <c r="P68">
+        <v>38.971514</v>
+      </c>
+      <c r="Q68">
+        <v>39.462514</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1469671251114077</v>
+      </c>
+      <c r="T68">
+        <v>2.19687488647833</v>
+      </c>
+      <c r="U68">
+        <v>0.02</v>
+      </c>
+      <c r="V68">
+        <v>0.15</v>
+      </c>
+      <c r="W68">
+        <v>0.017</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>9.100272783808231</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06118789775007971</v>
+      </c>
+      <c r="C69">
+        <v>154.9927210366044</v>
+      </c>
+      <c r="D69">
+        <v>432.5187210366045</v>
+      </c>
+      <c r="E69">
+        <v>219.796</v>
+      </c>
+      <c r="F69">
+        <v>287.296</v>
+      </c>
+      <c r="G69">
+        <v>9.77</v>
+      </c>
+      <c r="H69">
+        <v>361.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>52</v>
+      </c>
+      <c r="K69">
+        <v>0.491</v>
+      </c>
+      <c r="L69">
+        <v>51.509</v>
+      </c>
+      <c r="M69">
+        <v>5.74592</v>
+      </c>
+      <c r="N69">
+        <v>45.76308</v>
+      </c>
+      <c r="O69">
+        <v>6.864462000000001</v>
+      </c>
+      <c r="P69">
+        <v>38.898618</v>
+      </c>
+      <c r="Q69">
+        <v>39.389618</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.150902720454787</v>
+      </c>
+      <c r="T69">
+        <v>2.25967862823014</v>
+      </c>
+      <c r="U69">
+        <v>0.02</v>
+      </c>
+      <c r="V69">
+        <v>0.15</v>
+      </c>
+      <c r="W69">
+        <v>0.017</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>8.964447816885722</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06118697296228081</v>
+      </c>
+      <c r="C70">
+        <v>150.7094694556533</v>
+      </c>
+      <c r="D70">
+        <v>432.5234694556534</v>
+      </c>
+      <c r="E70">
+        <v>224.084</v>
+      </c>
+      <c r="F70">
+        <v>291.584</v>
+      </c>
+      <c r="G70">
+        <v>9.77</v>
+      </c>
+      <c r="H70">
+        <v>361.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>52</v>
+      </c>
+      <c r="K70">
+        <v>0.491</v>
+      </c>
+      <c r="L70">
+        <v>51.509</v>
+      </c>
+      <c r="M70">
+        <v>5.83168</v>
+      </c>
+      <c r="N70">
+        <v>45.67732</v>
+      </c>
+      <c r="O70">
+        <v>6.851598</v>
+      </c>
+      <c r="P70">
+        <v>38.825722</v>
+      </c>
+      <c r="Q70">
+        <v>39.316722</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1550842905071275</v>
+      </c>
+      <c r="T70">
+        <v>2.326407603841439</v>
+      </c>
+      <c r="U70">
+        <v>0.02</v>
+      </c>
+      <c r="V70">
+        <v>0.15</v>
+      </c>
+      <c r="W70">
+        <v>0.017</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>8.83261770193152</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06118604817448189</v>
+      </c>
+      <c r="C71">
+        <v>146.4262179789647</v>
+      </c>
+      <c r="D71">
+        <v>432.5282179789647</v>
+      </c>
+      <c r="E71">
+        <v>228.372</v>
+      </c>
+      <c r="F71">
+        <v>295.872</v>
+      </c>
+      <c r="G71">
+        <v>9.77</v>
+      </c>
+      <c r="H71">
+        <v>361.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>52</v>
+      </c>
+      <c r="K71">
+        <v>0.491</v>
+      </c>
+      <c r="L71">
+        <v>51.509</v>
+      </c>
+      <c r="M71">
+        <v>5.917439999999999</v>
+      </c>
+      <c r="N71">
+        <v>45.59156</v>
+      </c>
+      <c r="O71">
+        <v>6.838734</v>
+      </c>
+      <c r="P71">
+        <v>38.752826</v>
+      </c>
+      <c r="Q71">
+        <v>39.243826</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1595356392725223</v>
+      </c>
+      <c r="T71">
+        <v>2.397441674653466</v>
+      </c>
+      <c r="U71">
+        <v>0.02</v>
+      </c>
+      <c r="V71">
+        <v>0.15</v>
+      </c>
+      <c r="W71">
+        <v>0.017</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>8.704608749729614</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.06118512338668298</v>
+      </c>
+      <c r="C72">
+        <v>142.142966606542</v>
+      </c>
+      <c r="D72">
+        <v>432.532966606542</v>
+      </c>
+      <c r="E72">
+        <v>232.66</v>
+      </c>
+      <c r="F72">
+        <v>300.16</v>
+      </c>
+      <c r="G72">
+        <v>9.77</v>
+      </c>
+      <c r="H72">
+        <v>361.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>52</v>
+      </c>
+      <c r="K72">
+        <v>0.491</v>
+      </c>
+      <c r="L72">
+        <v>51.509</v>
+      </c>
+      <c r="M72">
+        <v>6.0032</v>
+      </c>
+      <c r="N72">
+        <v>45.5058</v>
+      </c>
+      <c r="O72">
+        <v>6.82587</v>
+      </c>
+      <c r="P72">
+        <v>38.67993</v>
+      </c>
+      <c r="Q72">
+        <v>39.17093</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1642837446222766</v>
+      </c>
+      <c r="T72">
+        <v>2.473211350186296</v>
+      </c>
+      <c r="U72">
+        <v>0.02</v>
+      </c>
+      <c r="V72">
+        <v>0.15</v>
+      </c>
+      <c r="W72">
+        <v>0.017</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>8.580257196162048</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.06118419859888408</v>
+      </c>
+      <c r="C73">
+        <v>137.8597153383886</v>
+      </c>
+      <c r="D73">
+        <v>432.5377153383886</v>
+      </c>
+      <c r="E73">
+        <v>236.948</v>
+      </c>
+      <c r="F73">
+        <v>304.448</v>
+      </c>
+      <c r="G73">
+        <v>9.77</v>
+      </c>
+      <c r="H73">
+        <v>361.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>52</v>
+      </c>
+      <c r="K73">
+        <v>0.491</v>
+      </c>
+      <c r="L73">
+        <v>51.509</v>
+      </c>
+      <c r="M73">
+        <v>6.088959999999998</v>
+      </c>
+      <c r="N73">
+        <v>45.42004</v>
+      </c>
+      <c r="O73">
+        <v>6.813006</v>
+      </c>
+      <c r="P73">
+        <v>38.607034</v>
+      </c>
+      <c r="Q73">
+        <v>39.098034</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1693593055133933</v>
+      </c>
+      <c r="T73">
+        <v>2.554206520583457</v>
+      </c>
+      <c r="U73">
+        <v>0.02</v>
+      </c>
+      <c r="V73">
+        <v>0.15</v>
+      </c>
+      <c r="W73">
+        <v>0.017</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>8.459408503258359</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.06118327381108517</v>
+      </c>
+      <c r="C74">
+        <v>133.5764641745079</v>
+      </c>
+      <c r="D74">
+        <v>432.5424641745079</v>
+      </c>
+      <c r="E74">
+        <v>241.236</v>
+      </c>
+      <c r="F74">
+        <v>308.736</v>
+      </c>
+      <c r="G74">
+        <v>9.77</v>
+      </c>
+      <c r="H74">
+        <v>361.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>52</v>
+      </c>
+      <c r="K74">
+        <v>0.491</v>
+      </c>
+      <c r="L74">
+        <v>51.509</v>
+      </c>
+      <c r="M74">
+        <v>6.174719999999999</v>
+      </c>
+      <c r="N74">
+        <v>45.33428</v>
+      </c>
+      <c r="O74">
+        <v>6.800142</v>
+      </c>
+      <c r="P74">
+        <v>38.534138</v>
+      </c>
+      <c r="Q74">
+        <v>39.025138</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1747974064681613</v>
+      </c>
+      <c r="T74">
+        <v>2.640987060294703</v>
+      </c>
+      <c r="U74">
+        <v>0.02</v>
+      </c>
+      <c r="V74">
+        <v>0.15</v>
+      </c>
+      <c r="W74">
+        <v>0.017</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>8.34191671849088</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.06118234902328624</v>
+      </c>
+      <c r="C75">
+        <v>129.2932131149034</v>
+      </c>
+      <c r="D75">
+        <v>432.5472131149035</v>
+      </c>
+      <c r="E75">
+        <v>245.524</v>
+      </c>
+      <c r="F75">
+        <v>313.024</v>
+      </c>
+      <c r="G75">
+        <v>9.77</v>
+      </c>
+      <c r="H75">
+        <v>361.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>52</v>
+      </c>
+      <c r="K75">
+        <v>0.491</v>
+      </c>
+      <c r="L75">
+        <v>51.509</v>
+      </c>
+      <c r="M75">
+        <v>6.260479999999999</v>
+      </c>
+      <c r="N75">
+        <v>45.24852</v>
+      </c>
+      <c r="O75">
+        <v>6.787278</v>
+      </c>
+      <c r="P75">
+        <v>38.461242</v>
+      </c>
+      <c r="Q75">
+        <v>38.952242</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.180638329715875</v>
+      </c>
+      <c r="T75">
+        <v>2.734195788132707</v>
+      </c>
+      <c r="U75">
+        <v>0.02</v>
+      </c>
+      <c r="V75">
+        <v>0.15</v>
+      </c>
+      <c r="W75">
+        <v>0.017</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>8.22764388673073</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06118142423548734</v>
+      </c>
+      <c r="C76">
+        <v>125.0099621595786</v>
+      </c>
+      <c r="D76">
+        <v>432.5519621595786</v>
+      </c>
+      <c r="E76">
+        <v>249.812</v>
+      </c>
+      <c r="F76">
+        <v>317.312</v>
+      </c>
+      <c r="G76">
+        <v>9.77</v>
+      </c>
+      <c r="H76">
+        <v>361.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>52</v>
+      </c>
+      <c r="K76">
+        <v>0.491</v>
+      </c>
+      <c r="L76">
+        <v>51.509</v>
+      </c>
+      <c r="M76">
+        <v>6.346239999999999</v>
+      </c>
+      <c r="N76">
+        <v>45.16276</v>
+      </c>
+      <c r="O76">
+        <v>6.774413999999999</v>
+      </c>
+      <c r="P76">
+        <v>38.388346</v>
+      </c>
+      <c r="Q76">
+        <v>38.879346</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1869285547518744</v>
+      </c>
+      <c r="T76">
+        <v>2.834574418112096</v>
+      </c>
+      <c r="U76">
+        <v>0.02</v>
+      </c>
+      <c r="V76">
+        <v>0.15</v>
+      </c>
+      <c r="W76">
+        <v>0.017</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>8.116459509883018</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06118049944768843</v>
+      </c>
+      <c r="C77">
+        <v>120.7267113085368</v>
+      </c>
+      <c r="D77">
+        <v>432.5567113085369</v>
+      </c>
+      <c r="E77">
+        <v>254.1</v>
+      </c>
+      <c r="F77">
+        <v>321.6</v>
+      </c>
+      <c r="G77">
+        <v>9.77</v>
+      </c>
+      <c r="H77">
+        <v>361.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>52</v>
+      </c>
+      <c r="K77">
+        <v>0.491</v>
+      </c>
+      <c r="L77">
+        <v>51.509</v>
+      </c>
+      <c r="M77">
+        <v>6.431999999999999</v>
+      </c>
+      <c r="N77">
+        <v>45.077</v>
+      </c>
+      <c r="O77">
+        <v>6.76155</v>
+      </c>
+      <c r="P77">
+        <v>38.31545</v>
+      </c>
+      <c r="Q77">
+        <v>38.80645</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1937219977907537</v>
+      </c>
+      <c r="T77">
+        <v>2.942983338489837</v>
+      </c>
+      <c r="U77">
+        <v>0.02</v>
+      </c>
+      <c r="V77">
+        <v>0.15</v>
+      </c>
+      <c r="W77">
+        <v>0.017</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>8.008240049751244</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.06189017465988952</v>
+      </c>
+      <c r="C78">
+        <v>112.8246601911089</v>
+      </c>
+      <c r="D78">
+        <v>428.9426601911089</v>
+      </c>
+      <c r="E78">
+        <v>258.388</v>
+      </c>
+      <c r="F78">
+        <v>325.888</v>
+      </c>
+      <c r="G78">
+        <v>9.77</v>
+      </c>
+      <c r="H78">
+        <v>361.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>52</v>
+      </c>
+      <c r="K78">
+        <v>0.491</v>
+      </c>
+      <c r="L78">
+        <v>51.509</v>
+      </c>
+      <c r="M78">
+        <v>6.876236800000001</v>
+      </c>
+      <c r="N78">
+        <v>44.6327632</v>
+      </c>
+      <c r="O78">
+        <v>6.69491448</v>
+      </c>
+      <c r="P78">
+        <v>37.93784872</v>
+      </c>
+      <c r="Q78">
+        <v>38.42884872</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.201081561082873</v>
+      </c>
+      <c r="T78">
+        <v>3.060426335565723</v>
+      </c>
+      <c r="U78">
+        <v>0.0211</v>
+      </c>
+      <c r="V78">
+        <v>0.15</v>
+      </c>
+      <c r="W78">
+        <v>0.017935</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>7.490870587819197</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06189859987209061</v>
+      </c>
+      <c r="C79">
+        <v>108.4941171420199</v>
+      </c>
+      <c r="D79">
+        <v>428.90011714202</v>
+      </c>
+      <c r="E79">
+        <v>262.676</v>
+      </c>
+      <c r="F79">
+        <v>330.176</v>
+      </c>
+      <c r="G79">
+        <v>9.77</v>
+      </c>
+      <c r="H79">
+        <v>361.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>52</v>
+      </c>
+      <c r="K79">
+        <v>0.491</v>
+      </c>
+      <c r="L79">
+        <v>51.509</v>
+      </c>
+      <c r="M79">
+        <v>6.966713600000001</v>
+      </c>
+      <c r="N79">
+        <v>44.5422864</v>
+      </c>
+      <c r="O79">
+        <v>6.68134296</v>
+      </c>
+      <c r="P79">
+        <v>37.86094344</v>
+      </c>
+      <c r="Q79">
+        <v>38.35194344</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.209081086400394</v>
+      </c>
+      <c r="T79">
+        <v>3.188081767169946</v>
+      </c>
+      <c r="U79">
+        <v>0.0211</v>
+      </c>
+      <c r="V79">
+        <v>0.15</v>
+      </c>
+      <c r="W79">
+        <v>0.017935</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>7.393586554211155</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.06190702508429169</v>
+      </c>
+      <c r="C80">
+        <v>104.1635825310358</v>
+      </c>
+      <c r="D80">
+        <v>428.8575825310359</v>
+      </c>
+      <c r="E80">
+        <v>266.964</v>
+      </c>
+      <c r="F80">
+        <v>334.464</v>
+      </c>
+      <c r="G80">
+        <v>9.77</v>
+      </c>
+      <c r="H80">
+        <v>361.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>52</v>
+      </c>
+      <c r="K80">
+        <v>0.491</v>
+      </c>
+      <c r="L80">
+        <v>51.509</v>
+      </c>
+      <c r="M80">
+        <v>7.057190400000001</v>
+      </c>
+      <c r="N80">
+        <v>44.4518096</v>
+      </c>
+      <c r="O80">
+        <v>6.667771439999999</v>
+      </c>
+      <c r="P80">
+        <v>37.78403815999999</v>
+      </c>
+      <c r="Q80">
+        <v>38.27503815999999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.217807841292235</v>
+      </c>
+      <c r="T80">
+        <v>3.327342238010917</v>
+      </c>
+      <c r="U80">
+        <v>0.0211</v>
+      </c>
+      <c r="V80">
+        <v>0.15</v>
+      </c>
+      <c r="W80">
+        <v>0.017935</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>7.29879698300332</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.06191545029649279</v>
+      </c>
+      <c r="C81">
+        <v>99.83305635564597</v>
+      </c>
+      <c r="D81">
+        <v>428.815056355646</v>
+      </c>
+      <c r="E81">
+        <v>271.252</v>
+      </c>
+      <c r="F81">
+        <v>338.752</v>
+      </c>
+      <c r="G81">
+        <v>9.77</v>
+      </c>
+      <c r="H81">
+        <v>361.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>52</v>
+      </c>
+      <c r="K81">
+        <v>0.491</v>
+      </c>
+      <c r="L81">
+        <v>51.509</v>
+      </c>
+      <c r="M81">
+        <v>7.147667200000001</v>
+      </c>
+      <c r="N81">
+        <v>44.3613328</v>
+      </c>
+      <c r="O81">
+        <v>6.65419992</v>
+      </c>
+      <c r="P81">
+        <v>37.70713288</v>
+      </c>
+      <c r="Q81">
+        <v>38.19813288</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2273657156975847</v>
+      </c>
+      <c r="T81">
+        <v>3.479865610836743</v>
+      </c>
+      <c r="U81">
+        <v>0.0211</v>
+      </c>
+      <c r="V81">
+        <v>0.15</v>
+      </c>
+      <c r="W81">
+        <v>0.017935</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>7.20640714777543</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.06192387550869387</v>
+      </c>
+      <c r="C82">
+        <v>95.50253861334147</v>
+      </c>
+      <c r="D82">
+        <v>428.7725386133415</v>
+      </c>
+      <c r="E82">
+        <v>275.54</v>
+      </c>
+      <c r="F82">
+        <v>343.04</v>
+      </c>
+      <c r="G82">
+        <v>9.77</v>
+      </c>
+      <c r="H82">
+        <v>361.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>52</v>
+      </c>
+      <c r="K82">
+        <v>0.491</v>
+      </c>
+      <c r="L82">
+        <v>51.509</v>
+      </c>
+      <c r="M82">
+        <v>7.238144000000001</v>
+      </c>
+      <c r="N82">
+        <v>44.270856</v>
+      </c>
+      <c r="O82">
+        <v>6.6406284</v>
+      </c>
+      <c r="P82">
+        <v>37.6302276</v>
+      </c>
+      <c r="Q82">
+        <v>38.1212276</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2378793775434694</v>
+      </c>
+      <c r="T82">
+        <v>3.647641320945151</v>
+      </c>
+      <c r="U82">
+        <v>0.0211</v>
+      </c>
+      <c r="V82">
+        <v>0.15</v>
+      </c>
+      <c r="W82">
+        <v>0.017935</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>7.116327058428237</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06193230072089498</v>
+      </c>
+      <c r="C83">
+        <v>91.17202930161403</v>
+      </c>
+      <c r="D83">
+        <v>428.7300293016141</v>
+      </c>
+      <c r="E83">
+        <v>279.828</v>
+      </c>
+      <c r="F83">
+        <v>347.328</v>
+      </c>
+      <c r="G83">
+        <v>9.77</v>
+      </c>
+      <c r="H83">
+        <v>361.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>52</v>
+      </c>
+      <c r="K83">
+        <v>0.491</v>
+      </c>
+      <c r="L83">
+        <v>51.509</v>
+      </c>
+      <c r="M83">
+        <v>7.328620800000001</v>
+      </c>
+      <c r="N83">
+        <v>44.1803792</v>
+      </c>
+      <c r="O83">
+        <v>6.62705688</v>
+      </c>
+      <c r="P83">
+        <v>37.55332232</v>
+      </c>
+      <c r="Q83">
+        <v>38.04432232</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2494997406362894</v>
+      </c>
+      <c r="T83">
+        <v>3.833077632117603</v>
+      </c>
+      <c r="U83">
+        <v>0.0211</v>
+      </c>
+      <c r="V83">
+        <v>0.15</v>
+      </c>
+      <c r="W83">
+        <v>0.017935</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>7.028471168818012</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.06194072593309605</v>
+      </c>
+      <c r="C84">
+        <v>86.84152841795645</v>
+      </c>
+      <c r="D84">
+        <v>428.6875284179565</v>
+      </c>
+      <c r="E84">
+        <v>284.116</v>
+      </c>
+      <c r="F84">
+        <v>351.616</v>
+      </c>
+      <c r="G84">
+        <v>9.77</v>
+      </c>
+      <c r="H84">
+        <v>361.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>52</v>
+      </c>
+      <c r="K84">
+        <v>0.491</v>
+      </c>
+      <c r="L84">
+        <v>51.509</v>
+      </c>
+      <c r="M84">
+        <v>7.419097600000002</v>
+      </c>
+      <c r="N84">
+        <v>44.0899024</v>
+      </c>
+      <c r="O84">
+        <v>6.613485359999999</v>
+      </c>
+      <c r="P84">
+        <v>37.47641704</v>
+      </c>
+      <c r="Q84">
+        <v>37.96741704</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.262411255183867</v>
+      </c>
+      <c r="T84">
+        <v>4.03911797786477</v>
+      </c>
+      <c r="U84">
+        <v>0.0211</v>
+      </c>
+      <c r="V84">
+        <v>0.15</v>
+      </c>
+      <c r="W84">
+        <v>0.017935</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>6.942758105783645</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06194915114529716</v>
+      </c>
+      <c r="C85">
+        <v>82.51103595986228</v>
+      </c>
+      <c r="D85">
+        <v>428.6450359598624</v>
+      </c>
+      <c r="E85">
+        <v>288.4040000000001</v>
+      </c>
+      <c r="F85">
+        <v>355.9040000000001</v>
+      </c>
+      <c r="G85">
+        <v>9.77</v>
+      </c>
+      <c r="H85">
+        <v>361.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>52</v>
+      </c>
+      <c r="K85">
+        <v>0.491</v>
+      </c>
+      <c r="L85">
+        <v>51.509</v>
+      </c>
+      <c r="M85">
+        <v>7.509574400000002</v>
+      </c>
+      <c r="N85">
+        <v>43.9994256</v>
+      </c>
+      <c r="O85">
+        <v>6.599913839999999</v>
+      </c>
+      <c r="P85">
+        <v>37.39951176</v>
+      </c>
+      <c r="Q85">
+        <v>37.89051176</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2768417714429245</v>
+      </c>
+      <c r="T85">
+        <v>4.269398364288076</v>
+      </c>
+      <c r="U85">
+        <v>0.0211</v>
+      </c>
+      <c r="V85">
+        <v>0.15</v>
+      </c>
+      <c r="W85">
+        <v>0.017935</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>6.859110417762155</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.06195757635749825</v>
+      </c>
+      <c r="C86">
+        <v>78.18055192482677</v>
+      </c>
+      <c r="D86">
+        <v>428.6025519248268</v>
+      </c>
+      <c r="E86">
+        <v>292.692</v>
+      </c>
+      <c r="F86">
+        <v>360.192</v>
+      </c>
+      <c r="G86">
+        <v>9.77</v>
+      </c>
+      <c r="H86">
+        <v>361.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>52</v>
+      </c>
+      <c r="K86">
+        <v>0.491</v>
+      </c>
+      <c r="L86">
+        <v>51.509</v>
+      </c>
+      <c r="M86">
+        <v>7.6000512</v>
+      </c>
+      <c r="N86">
+        <v>43.9089488</v>
+      </c>
+      <c r="O86">
+        <v>6.586342319999999</v>
+      </c>
+      <c r="P86">
+        <v>37.32260648</v>
+      </c>
+      <c r="Q86">
+        <v>37.81360648</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.293076102234364</v>
+      </c>
+      <c r="T86">
+        <v>4.528463799014292</v>
+      </c>
+      <c r="U86">
+        <v>0.0211</v>
+      </c>
+      <c r="V86">
+        <v>0.15</v>
+      </c>
+      <c r="W86">
+        <v>0.017935</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>6.777454341360226</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.06196600156969933</v>
+      </c>
+      <c r="C87">
+        <v>73.85007631034529</v>
+      </c>
+      <c r="D87">
+        <v>428.5600763103453</v>
+      </c>
+      <c r="E87">
+        <v>296.98</v>
+      </c>
+      <c r="F87">
+        <v>364.48</v>
+      </c>
+      <c r="G87">
+        <v>9.77</v>
+      </c>
+      <c r="H87">
+        <v>361.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>52</v>
+      </c>
+      <c r="K87">
+        <v>0.491</v>
+      </c>
+      <c r="L87">
+        <v>51.509</v>
+      </c>
+      <c r="M87">
+        <v>7.690528</v>
+      </c>
+      <c r="N87">
+        <v>43.818472</v>
+      </c>
+      <c r="O87">
+        <v>6.5727708</v>
+      </c>
+      <c r="P87">
+        <v>37.2457012</v>
+      </c>
+      <c r="Q87">
+        <v>37.7367012</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3114750104646621</v>
+      </c>
+      <c r="T87">
+        <v>4.822071291704005</v>
+      </c>
+      <c r="U87">
+        <v>0.0211</v>
+      </c>
+      <c r="V87">
+        <v>0.15</v>
+      </c>
+      <c r="W87">
+        <v>0.017935</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>6.697719584403047</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.06197442678190042</v>
+      </c>
+      <c r="C88">
+        <v>69.51960911391467</v>
+      </c>
+      <c r="D88">
+        <v>428.5176091139147</v>
+      </c>
+      <c r="E88">
+        <v>301.268</v>
+      </c>
+      <c r="F88">
+        <v>368.768</v>
+      </c>
+      <c r="G88">
+        <v>9.77</v>
+      </c>
+      <c r="H88">
+        <v>361.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>52</v>
+      </c>
+      <c r="K88">
+        <v>0.491</v>
+      </c>
+      <c r="L88">
+        <v>51.509</v>
+      </c>
+      <c r="M88">
+        <v>7.781004800000001</v>
+      </c>
+      <c r="N88">
+        <v>43.7279952</v>
+      </c>
+      <c r="O88">
+        <v>6.559199280000001</v>
+      </c>
+      <c r="P88">
+        <v>37.16879592</v>
+      </c>
+      <c r="Q88">
+        <v>37.65979592</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3325023341564315</v>
+      </c>
+      <c r="T88">
+        <v>5.157622711920821</v>
+      </c>
+      <c r="U88">
+        <v>0.0211</v>
+      </c>
+      <c r="V88">
+        <v>0.15</v>
+      </c>
+      <c r="W88">
+        <v>0.017935</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>6.619839124119291</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.0619828519941015</v>
+      </c>
+      <c r="C89">
+        <v>65.18915033303267</v>
+      </c>
+      <c r="D89">
+        <v>428.4751503330327</v>
+      </c>
+      <c r="E89">
+        <v>305.556</v>
+      </c>
+      <c r="F89">
+        <v>373.056</v>
+      </c>
+      <c r="G89">
+        <v>9.77</v>
+      </c>
+      <c r="H89">
+        <v>361.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>52</v>
+      </c>
+      <c r="K89">
+        <v>0.491</v>
+      </c>
+      <c r="L89">
+        <v>51.509</v>
+      </c>
+      <c r="M89">
+        <v>7.8714816</v>
+      </c>
+      <c r="N89">
+        <v>43.6375184</v>
+      </c>
+      <c r="O89">
+        <v>6.545627759999999</v>
+      </c>
+      <c r="P89">
+        <v>37.09189064</v>
+      </c>
+      <c r="Q89">
+        <v>37.58289064</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3567646307238577</v>
+      </c>
+      <c r="T89">
+        <v>5.544797427555609</v>
+      </c>
+      <c r="U89">
+        <v>0.0211</v>
+      </c>
+      <c r="V89">
+        <v>0.15</v>
+      </c>
+      <c r="W89">
+        <v>0.017935</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>6.543749019244356</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.06199127720630259</v>
+      </c>
+      <c r="C90">
+        <v>60.85869996519801</v>
+      </c>
+      <c r="D90">
+        <v>428.432699965198</v>
+      </c>
+      <c r="E90">
+        <v>309.844</v>
+      </c>
+      <c r="F90">
+        <v>377.344</v>
+      </c>
+      <c r="G90">
+        <v>9.77</v>
+      </c>
+      <c r="H90">
+        <v>361.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>52</v>
+      </c>
+      <c r="K90">
+        <v>0.491</v>
+      </c>
+      <c r="L90">
+        <v>51.509</v>
+      </c>
+      <c r="M90">
+        <v>7.9619584</v>
+      </c>
+      <c r="N90">
+        <v>43.5470416</v>
+      </c>
+      <c r="O90">
+        <v>6.53205624</v>
+      </c>
+      <c r="P90">
+        <v>37.01498536</v>
+      </c>
+      <c r="Q90">
+        <v>37.50598536</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3850706433858549</v>
+      </c>
+      <c r="T90">
+        <v>5.996501262462861</v>
+      </c>
+      <c r="U90">
+        <v>0.0211</v>
+      </c>
+      <c r="V90">
+        <v>0.15</v>
+      </c>
+      <c r="W90">
+        <v>0.017935</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>6.469388234934762</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.06313445241850368</v>
+      </c>
+      <c r="C91">
+        <v>50.88778491414314</v>
+      </c>
+      <c r="D91">
+        <v>422.7497849141432</v>
+      </c>
+      <c r="E91">
+        <v>314.132</v>
+      </c>
+      <c r="F91">
+        <v>381.632</v>
+      </c>
+      <c r="G91">
+        <v>9.77</v>
+      </c>
+      <c r="H91">
+        <v>361.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>0.491</v>
+      </c>
+      <c r="L91">
+        <v>51.509</v>
+      </c>
+      <c r="M91">
+        <v>8.624883199999999</v>
+      </c>
+      <c r="N91">
+        <v>42.8841168</v>
+      </c>
+      <c r="O91">
+        <v>6.43261752</v>
+      </c>
+      <c r="P91">
+        <v>36.45149928</v>
+      </c>
+      <c r="Q91">
+        <v>36.94249928</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.418523203804579</v>
+      </c>
+      <c r="T91">
+        <v>6.53033306735325</v>
+      </c>
+      <c r="U91">
+        <v>0.0226</v>
+      </c>
+      <c r="V91">
+        <v>0.15</v>
+      </c>
+      <c r="W91">
+        <v>0.01921</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>5.97213884589185</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.06315562763070479</v>
+      </c>
+      <c r="C92">
+        <v>46.49594119634025</v>
+      </c>
+      <c r="D92">
+        <v>422.6459411963403</v>
+      </c>
+      <c r="E92">
+        <v>318.42</v>
+      </c>
+      <c r="F92">
+        <v>385.92</v>
+      </c>
+      <c r="G92">
+        <v>9.77</v>
+      </c>
+      <c r="H92">
+        <v>361.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>0.491</v>
+      </c>
+      <c r="L92">
+        <v>51.509</v>
+      </c>
+      <c r="M92">
+        <v>8.721792000000001</v>
+      </c>
+      <c r="N92">
+        <v>42.787208</v>
+      </c>
+      <c r="O92">
+        <v>6.4180812</v>
+      </c>
+      <c r="P92">
+        <v>36.3691268</v>
+      </c>
+      <c r="Q92">
+        <v>36.8601268</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4586662763070479</v>
+      </c>
+      <c r="T92">
+        <v>7.170931233221718</v>
+      </c>
+      <c r="U92">
+        <v>0.0226</v>
+      </c>
+      <c r="V92">
+        <v>0.15</v>
+      </c>
+      <c r="W92">
+        <v>0.01921</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>5.905781747604162</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.06317680284290586</v>
+      </c>
+      <c r="C93">
+        <v>42.10414848208575</v>
+      </c>
+      <c r="D93">
+        <v>422.5421484820858</v>
+      </c>
+      <c r="E93">
+        <v>322.708</v>
+      </c>
+      <c r="F93">
+        <v>390.208</v>
+      </c>
+      <c r="G93">
+        <v>9.77</v>
+      </c>
+      <c r="H93">
+        <v>361.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>52</v>
+      </c>
+      <c r="K93">
+        <v>0.491</v>
+      </c>
+      <c r="L93">
+        <v>51.509</v>
+      </c>
+      <c r="M93">
+        <v>8.8187008</v>
+      </c>
+      <c r="N93">
+        <v>42.6902992</v>
+      </c>
+      <c r="O93">
+        <v>6.403544879999999</v>
+      </c>
+      <c r="P93">
+        <v>36.28675432</v>
+      </c>
+      <c r="Q93">
+        <v>36.77775432</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5077300315878431</v>
+      </c>
+      <c r="T93">
+        <v>7.953884547060955</v>
+      </c>
+      <c r="U93">
+        <v>0.0226</v>
+      </c>
+      <c r="V93">
+        <v>0.15</v>
+      </c>
+      <c r="W93">
+        <v>0.01921</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>5.840883047081039</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.06319797805510696</v>
+      </c>
+      <c r="C94">
+        <v>37.71240673381254</v>
+      </c>
+      <c r="D94">
+        <v>422.4384067338126</v>
+      </c>
+      <c r="E94">
+        <v>326.996</v>
+      </c>
+      <c r="F94">
+        <v>394.496</v>
+      </c>
+      <c r="G94">
+        <v>9.77</v>
+      </c>
+      <c r="H94">
+        <v>361.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>52</v>
+      </c>
+      <c r="K94">
+        <v>0.491</v>
+      </c>
+      <c r="L94">
+        <v>51.509</v>
+      </c>
+      <c r="M94">
+        <v>8.9156096</v>
+      </c>
+      <c r="N94">
+        <v>42.5933904</v>
+      </c>
+      <c r="O94">
+        <v>6.389008560000001</v>
+      </c>
+      <c r="P94">
+        <v>36.20438184</v>
+      </c>
+      <c r="Q94">
+        <v>36.69538184</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5690597256888373</v>
+      </c>
+      <c r="T94">
+        <v>8.932576189360004</v>
+      </c>
+      <c r="U94">
+        <v>0.0226</v>
+      </c>
+      <c r="V94">
+        <v>0.15</v>
+      </c>
+      <c r="W94">
+        <v>0.01921</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>5.777395187873638</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.06321915326730805</v>
+      </c>
+      <c r="C95">
+        <v>33.3207159139908</v>
+      </c>
+      <c r="D95">
+        <v>422.3347159139909</v>
+      </c>
+      <c r="E95">
+        <v>331.284</v>
+      </c>
+      <c r="F95">
+        <v>398.784</v>
+      </c>
+      <c r="G95">
+        <v>9.77</v>
+      </c>
+      <c r="H95">
+        <v>361.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>52</v>
+      </c>
+      <c r="K95">
+        <v>0.491</v>
+      </c>
+      <c r="L95">
+        <v>51.509</v>
+      </c>
+      <c r="M95">
+        <v>9.012518400000001</v>
+      </c>
+      <c r="N95">
+        <v>42.4964816</v>
+      </c>
+      <c r="O95">
+        <v>6.374472239999999</v>
+      </c>
+      <c r="P95">
+        <v>36.12200935999999</v>
+      </c>
+      <c r="Q95">
+        <v>36.61300935999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6479121895329726</v>
+      </c>
+      <c r="T95">
+        <v>10.19089401517306</v>
+      </c>
+      <c r="U95">
+        <v>0.0226</v>
+      </c>
+      <c r="V95">
+        <v>0.15</v>
+      </c>
+      <c r="W95">
+        <v>0.01921</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>5.715272658971768</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.06324032847950913</v>
+      </c>
+      <c r="C96">
+        <v>28.92907598512727</v>
+      </c>
+      <c r="D96">
+        <v>422.2310759851273</v>
+      </c>
+      <c r="E96">
+        <v>335.5720000000001</v>
+      </c>
+      <c r="F96">
+        <v>403.0720000000001</v>
+      </c>
+      <c r="G96">
+        <v>9.77</v>
+      </c>
+      <c r="H96">
+        <v>361.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>52</v>
+      </c>
+      <c r="K96">
+        <v>0.491</v>
+      </c>
+      <c r="L96">
+        <v>51.509</v>
+      </c>
+      <c r="M96">
+        <v>9.109427200000001</v>
+      </c>
+      <c r="N96">
+        <v>42.3995728</v>
+      </c>
+      <c r="O96">
+        <v>6.35993592</v>
+      </c>
+      <c r="P96">
+        <v>36.03963688</v>
+      </c>
+      <c r="Q96">
+        <v>36.53063688</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7530488079918196</v>
+      </c>
+      <c r="T96">
+        <v>11.86865111625715</v>
+      </c>
+      <c r="U96">
+        <v>0.0226</v>
+      </c>
+      <c r="V96">
+        <v>0.15</v>
+      </c>
+      <c r="W96">
+        <v>0.01921</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>5.654471886003985</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.06326150369171023</v>
+      </c>
+      <c r="C97">
+        <v>24.53748690976551</v>
+      </c>
+      <c r="D97">
+        <v>422.1274869097655</v>
+      </c>
+      <c r="E97">
+        <v>339.86</v>
+      </c>
+      <c r="F97">
+        <v>407.36</v>
+      </c>
+      <c r="G97">
+        <v>9.77</v>
+      </c>
+      <c r="H97">
+        <v>361.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>52</v>
+      </c>
+      <c r="K97">
+        <v>0.491</v>
+      </c>
+      <c r="L97">
+        <v>51.509</v>
+      </c>
+      <c r="M97">
+        <v>9.206336</v>
+      </c>
+      <c r="N97">
+        <v>42.302664</v>
+      </c>
+      <c r="O97">
+        <v>6.345399599999999</v>
+      </c>
+      <c r="P97">
+        <v>35.9572644</v>
+      </c>
+      <c r="Q97">
+        <v>36.4482644</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9002400738342059</v>
+      </c>
+      <c r="T97">
+        <v>14.21751105777487</v>
+      </c>
+      <c r="U97">
+        <v>0.0226</v>
+      </c>
+      <c r="V97">
+        <v>0.15</v>
+      </c>
+      <c r="W97">
+        <v>0.01921</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>5.594951129309206</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.06328267890391132</v>
+      </c>
+      <c r="C98">
+        <v>20.14594865048599</v>
+      </c>
+      <c r="D98">
+        <v>422.023948650486</v>
+      </c>
+      <c r="E98">
+        <v>344.148</v>
+      </c>
+      <c r="F98">
+        <v>411.648</v>
+      </c>
+      <c r="G98">
+        <v>9.77</v>
+      </c>
+      <c r="H98">
+        <v>361.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>52</v>
+      </c>
+      <c r="K98">
+        <v>0.491</v>
+      </c>
+      <c r="L98">
+        <v>51.509</v>
+      </c>
+      <c r="M98">
+        <v>9.303244799999998</v>
+      </c>
+      <c r="N98">
+        <v>42.2057552</v>
+      </c>
+      <c r="O98">
+        <v>6.33086328</v>
+      </c>
+      <c r="P98">
+        <v>35.87489192</v>
+      </c>
+      <c r="Q98">
+        <v>36.36589192</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.121026972597782</v>
+      </c>
+      <c r="T98">
+        <v>17.7408009700514</v>
+      </c>
+      <c r="U98">
+        <v>0.0226</v>
+      </c>
+      <c r="V98">
+        <v>0.15</v>
+      </c>
+      <c r="W98">
+        <v>0.01921</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>5.536670388378902</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.06330385411611242</v>
+      </c>
+      <c r="C99">
+        <v>15.75446116990582</v>
+      </c>
+      <c r="D99">
+        <v>421.9204611699058</v>
+      </c>
+      <c r="E99">
+        <v>348.436</v>
+      </c>
+      <c r="F99">
+        <v>415.936</v>
+      </c>
+      <c r="G99">
+        <v>9.77</v>
+      </c>
+      <c r="H99">
+        <v>361.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>52</v>
+      </c>
+      <c r="K99">
+        <v>0.491</v>
+      </c>
+      <c r="L99">
+        <v>51.509</v>
+      </c>
+      <c r="M99">
+        <v>9.400153599999999</v>
+      </c>
+      <c r="N99">
+        <v>42.1088464</v>
+      </c>
+      <c r="O99">
+        <v>6.31632696</v>
+      </c>
+      <c r="P99">
+        <v>35.79251944000001</v>
+      </c>
+      <c r="Q99">
+        <v>36.28351944000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.489005137203746</v>
+      </c>
+      <c r="T99">
+        <v>23.61295082384567</v>
+      </c>
+      <c r="U99">
+        <v>0.0226</v>
+      </c>
+      <c r="V99">
+        <v>0.15</v>
+      </c>
+      <c r="W99">
+        <v>0.01921</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>5.479591312210048</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.06332502932831349</v>
+      </c>
+      <c r="C100">
+        <v>11.36302443067871</v>
+      </c>
+      <c r="D100">
+        <v>421.8170244306787</v>
+      </c>
+      <c r="E100">
+        <v>352.724</v>
+      </c>
+      <c r="F100">
+        <v>420.224</v>
+      </c>
+      <c r="G100">
+        <v>9.77</v>
+      </c>
+      <c r="H100">
+        <v>361.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>52</v>
+      </c>
+      <c r="K100">
+        <v>0.491</v>
+      </c>
+      <c r="L100">
+        <v>51.509</v>
+      </c>
+      <c r="M100">
+        <v>9.497062399999999</v>
+      </c>
+      <c r="N100">
+        <v>42.0119376</v>
+      </c>
+      <c r="O100">
+        <v>6.30179064</v>
+      </c>
+      <c r="P100">
+        <v>35.71014696</v>
+      </c>
+      <c r="Q100">
+        <v>36.20114696</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.224961466415673</v>
+      </c>
+      <c r="T100">
+        <v>35.35725053143421</v>
+      </c>
+      <c r="U100">
+        <v>0.0226</v>
+      </c>
+      <c r="V100">
+        <v>0.15</v>
+      </c>
+      <c r="W100">
+        <v>0.01921</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>5.42367711514668</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.06334620454051458</v>
+      </c>
+      <c r="C101">
+        <v>6.971638395495006</v>
+      </c>
+      <c r="D101">
+        <v>421.713638395495</v>
+      </c>
+      <c r="E101">
+        <v>357.012</v>
+      </c>
+      <c r="F101">
+        <v>424.512</v>
+      </c>
+      <c r="G101">
+        <v>9.77</v>
+      </c>
+      <c r="H101">
+        <v>361.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>52</v>
+      </c>
+      <c r="K101">
+        <v>0.491</v>
+      </c>
+      <c r="L101">
+        <v>51.509</v>
+      </c>
+      <c r="M101">
+        <v>9.593971199999999</v>
+      </c>
+      <c r="N101">
+        <v>41.9150288</v>
+      </c>
+      <c r="O101">
+        <v>6.28725432</v>
+      </c>
+      <c r="P101">
+        <v>35.62777448</v>
+      </c>
+      <c r="Q101">
+        <v>36.11877448</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.432830454051454</v>
+      </c>
+      <c r="T101">
+        <v>70.59014965419983</v>
+      </c>
+      <c r="U101">
+        <v>0.0226</v>
+      </c>
+      <c r="V101">
+        <v>0.15</v>
+      </c>
+      <c r="W101">
+        <v>0.01921</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>5.368892497821967</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
